--- a/RoadMap/NewMap_Excel/Map5_1.xlsx
+++ b/RoadMap/NewMap_Excel/Map5_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu2\Desktop\TeamCreate\デザインしたやつ\マップ\Excelデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE9194-4DDA-4BAD-B70D-26001DBBAE00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37705256-F687-4135-8FB7-CD814CE45644}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{28C75793-38F3-4E5C-9AF9-177F310CD9E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="65">
   <si>
     <t>Line_1</t>
     <phoneticPr fontId="2"/>
@@ -74,10 +74,6 @@
     <t>Line_15</t>
   </si>
   <si>
-    <t>J</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Ps</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -98,35 +94,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>J</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Sj</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Ps</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Pr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ps</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Pr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -138,19 +110,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>E_7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Me</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Se</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -166,23 +126,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>J</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>E_7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>De</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Me</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -195,30 +139,6 @@
   </si>
   <si>
     <t>E_7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VPr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VPs</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Me</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>De</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -254,22 +174,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ps</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Pr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Me</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VPr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>s</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -298,14 +202,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Jr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Js</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Ps</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -323,6 +219,58 @@
   </si>
   <si>
     <t>Gr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Js</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ps</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Me</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sj</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VPs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VPr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E_7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ps</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sj</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -380,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,12 +362,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,46 +550,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -659,19 +571,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D7DA22-7C5D-4830-9B0D-0A1F72FB06A2}">
   <dimension ref="A1:AH652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A630" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R658" sqref="R658"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L198" sqref="L198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1138,7 +1047,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -1580,7 +1489,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1589,9 +1498,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
@@ -1621,11 +1528,11 @@
       <c r="B15" s="7"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="37"/>
+        <v>34</v>
+      </c>
+      <c r="E15" s="27"/>
       <c r="F15" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1633,11 +1540,11 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="37"/>
+        <v>34</v>
+      </c>
+      <c r="M15" s="27"/>
       <c r="N15" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="7"/>
@@ -1704,7 +1611,7 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -1718,7 +1625,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="5"/>
@@ -1980,7 +1887,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -2019,11 +1926,11 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="37"/>
+        <v>34</v>
+      </c>
+      <c r="I25" s="27"/>
       <c r="J25" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -2093,9 +2000,9 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C27" s="20"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -2107,9 +2014,9 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="22"/>
+      <c r="O27" s="21"/>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -2248,14 +2155,12 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -2289,17 +2194,6 @@
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="6"/>
@@ -2402,8 +2296,21 @@
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="27"/>
+      <c r="L35" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="6"/>
@@ -2473,21 +2380,15 @@
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="13"/>
       <c r="H37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="I37" s="13"/>
       <c r="J37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="6"/>
@@ -2706,24 +2607,21 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C43" s="20"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
+      <c r="M43" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="N43" s="13"/>
       <c r="O43" s="18"/>
       <c r="P43" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
@@ -2749,28 +2647,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C44" s="20"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="5" t="s">
-        <v>17</v>
+      <c r="F44" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="N44" s="13"/>
       <c r="O44" s="18"/>
       <c r="P44" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
@@ -2796,26 +2691,23 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C45" s="20"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="N45" s="13"/>
       <c r="O45" s="18"/>
       <c r="P45" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
@@ -2841,26 +2733,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C46" s="20"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="N46" s="13"/>
       <c r="O46" s="18"/>
       <c r="P46" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -2886,26 +2775,23 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C47" s="20"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="N47" s="13"/>
       <c r="O47" s="18"/>
       <c r="P47" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
@@ -2931,26 +2817,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C48" s="20"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="N48" s="13"/>
       <c r="O48" s="18"/>
       <c r="P48" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
@@ -2976,25 +2859,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C49" s="20"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="L49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="N49" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O49" s="18"/>
       <c r="P49" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
@@ -3020,26 +2900,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C50" s="20"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="5"/>
-      <c r="L50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="5"/>
+      <c r="N50" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O50" s="18"/>
       <c r="P50" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
@@ -3065,28 +2942,24 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C51" s="20"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
+      <c r="K51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O51" s="18"/>
       <c r="P51" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
@@ -3112,26 +2985,23 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C52" s="20"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="5"/>
-      <c r="L52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="5"/>
+      <c r="N52" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O52" s="18"/>
       <c r="P52" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
@@ -3157,26 +3027,23 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C53" s="20"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="5"/>
-      <c r="L53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="5"/>
+      <c r="N53" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O53" s="18"/>
       <c r="P53" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -3202,26 +3069,23 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C54" s="20"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="5"/>
-      <c r="L54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="5"/>
+      <c r="N54" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O54" s="18"/>
       <c r="P54" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -3247,25 +3111,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C55" s="20"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="L55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="N55" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O55" s="18"/>
       <c r="P55" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -3291,25 +3152,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C56" s="20"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="K56" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
+      <c r="G56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="M56" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="N56" s="13"/>
       <c r="O56" s="18"/>
       <c r="P56" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -3335,25 +3193,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="J57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
+      <c r="L57" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
       <c r="O57" s="18"/>
       <c r="P57" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -3379,24 +3234,21 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
+      <c r="K58" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
       <c r="O58" s="18"/>
       <c r="P58" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
@@ -3422,28 +3274,24 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
+      <c r="H59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="18"/>
       <c r="P59" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -3469,26 +3317,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J60" s="18"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="8"/>
+      <c r="K60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" s="18"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="18"/>
       <c r="P60" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
@@ -3514,26 +3359,23 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="8"/>
+      <c r="K61" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="18"/>
       <c r="P61" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
@@ -3559,26 +3401,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="8"/>
+      <c r="K62" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="18"/>
       <c r="P62" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
@@ -3604,26 +3443,23 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="8"/>
+      <c r="K63" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="18"/>
       <c r="P63" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
@@ -3649,26 +3485,23 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="8"/>
+      <c r="K64" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="18"/>
       <c r="P64" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
@@ -3808,26 +3641,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C68" s="20"/>
       <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="5" t="s">
-        <v>19</v>
+      <c r="E68" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I68" s="5"/>
-      <c r="J68" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
+      <c r="L68" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
       <c r="O68" s="18"/>
       <c r="P68" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
@@ -4088,7 +3917,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -4127,7 +3956,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="27"/>
+      <c r="I76" s="23"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -4165,7 +3994,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="27"/>
+      <c r="I77" s="23"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -4203,7 +4032,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="27"/>
+      <c r="I78" s="23"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -4241,7 +4070,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="27"/>
+      <c r="I79" s="23"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -4275,27 +4104,21 @@
       <c r="B80" s="7"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E80" s="5"/>
-      <c r="F80" s="5" t="s">
+      <c r="G80" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="13"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" s="27"/>
-      <c r="J80" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K80" s="13"/>
-      <c r="L80" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="7"/>
@@ -4329,7 +4152,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="27"/>
+      <c r="I81" s="23"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -4367,7 +4190,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="27"/>
+      <c r="I82" s="23"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -4405,7 +4228,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="27"/>
+      <c r="I83" s="23"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -4437,25 +4260,23 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="5" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="27"/>
+      <c r="I84" s="23"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="M84" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N84" s="13"/>
-      <c r="O84" s="22"/>
+      <c r="N84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O84" s="21"/>
       <c r="P84" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
@@ -4487,7 +4308,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="27"/>
+      <c r="I85" s="23"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
@@ -4525,7 +4346,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
-      <c r="I86" s="27"/>
+      <c r="I86" s="23"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
@@ -4560,7 +4381,7 @@
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="I87" s="27"/>
+      <c r="I87" s="23"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
@@ -4592,20 +4413,14 @@
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="5" t="s">
+      <c r="G88" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="13"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88" s="27"/>
-      <c r="J88" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K88" s="13"/>
-      <c r="L88" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -4641,7 +4456,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="27"/>
+      <c r="I89" s="23"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
@@ -4679,7 +4494,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="27"/>
+      <c r="I90" s="23"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
@@ -4717,7 +4532,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
-      <c r="I91" s="27"/>
+      <c r="I91" s="23"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
@@ -4755,7 +4570,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
-      <c r="I92" s="27"/>
+      <c r="I92" s="23"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -4793,7 +4608,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
-      <c r="I93" s="27"/>
+      <c r="I93" s="23"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
@@ -4826,25 +4641,23 @@
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="13"/>
+      <c r="E94" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
-      <c r="I94" s="27"/>
+      <c r="I94" s="23"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M94" s="13"/>
+      <c r="M94" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N94" s="13"/>
       <c r="O94" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P94" s="7"/>
       <c r="Q94" s="5"/>
@@ -4877,7 +4690,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="27"/>
+      <c r="I95" s="23"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
@@ -4915,7 +4728,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="27"/>
+      <c r="I96" s="23"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
@@ -4949,7 +4762,7 @@
       <c r="B97" s="7"/>
       <c r="C97" s="4"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="27"/>
+      <c r="I97" s="23"/>
       <c r="J97" s="5"/>
       <c r="O97" s="6"/>
       <c r="P97" s="7"/>
@@ -4983,7 +4796,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
-      <c r="I98" s="27"/>
+      <c r="I98" s="23"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
@@ -5015,23 +4828,21 @@
         <v>98</v>
       </c>
       <c r="B99" s="7"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D99" s="28"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
-      <c r="I99" s="27"/>
+      <c r="I99" s="23"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
+      <c r="L99" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M99" s="5"/>
-      <c r="N99" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O99" s="6"/>
+      <c r="N99" s="28"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
@@ -5057,26 +4868,23 @@
         <v>99</v>
       </c>
       <c r="B100" s="7"/>
-      <c r="C100" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" s="37"/>
+      <c r="D100" s="28"/>
       <c r="E100" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="F100" s="27"/>
+      <c r="G100" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H100" s="5"/>
-      <c r="I100" s="27"/>
+      <c r="I100" s="23"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
+      <c r="K100" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L100" s="27"/>
       <c r="M100" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N100" s="37"/>
-      <c r="O100" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="P100" s="7"/>
       <c r="Q100" s="5"/>
@@ -5110,7 +4918,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -5143,9 +4951,9 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C102" s="20"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
@@ -5157,9 +4965,9 @@
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
-      <c r="O102" s="22"/>
+      <c r="O102" s="21"/>
       <c r="P102" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
@@ -5368,7 +5176,9 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
+      <c r="I108" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -5405,9 +5215,6 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
@@ -5438,27 +5245,23 @@
         <v>109</v>
       </c>
       <c r="B110" s="7"/>
-      <c r="C110" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
       <c r="H110" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I110" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="I110" s="27"/>
       <c r="J110" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K110" s="37"/>
-      <c r="L110" s="37"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="37"/>
-      <c r="O110" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
@@ -5522,9 +5325,9 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C112" s="20"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -5536,9 +5339,9 @@
       <c r="L112" s="13"/>
       <c r="M112" s="13"/>
       <c r="N112" s="13"/>
-      <c r="O112" s="22"/>
+      <c r="O112" s="21"/>
       <c r="P112" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
@@ -5710,7 +5513,9 @@
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
+      <c r="J117" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
@@ -5780,27 +5585,21 @@
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E119" s="37"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37"/>
-      <c r="I119" s="37"/>
-      <c r="J119" s="37"/>
-      <c r="K119" s="37"/>
-      <c r="L119" s="5" t="s">
-        <v>55</v>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J119" s="27"/>
+      <c r="K119" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="M119" s="5"/>
-      <c r="N119" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O119" s="39"/>
-      <c r="P119" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="N119" s="5"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="7"/>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
       <c r="S119" s="5"/>
@@ -5863,9 +5662,9 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C121" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C121" s="20"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
@@ -5877,9 +5676,9 @@
       <c r="L121" s="13"/>
       <c r="M121" s="13"/>
       <c r="N121" s="13"/>
-      <c r="O121" s="22"/>
+      <c r="O121" s="21"/>
       <c r="P121" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
@@ -6050,7 +5849,9 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
+      <c r="I126" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
@@ -6119,25 +5920,18 @@
       <c r="A128" s="3">
         <v>127</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C128" s="38"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="5" t="s">
-        <v>55</v>
+      <c r="B128" s="7"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I128" s="27"/>
+      <c r="J128" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="N128" s="5"/>
       <c r="O128" s="6"/>
@@ -6204,9 +5998,9 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C130" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="C130" s="20"/>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
@@ -6218,9 +6012,9 @@
       <c r="L130" s="13"/>
       <c r="M130" s="13"/>
       <c r="N130" s="13"/>
-      <c r="O130" s="22"/>
+      <c r="O130" s="21"/>
       <c r="P130" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
@@ -6398,13 +6192,9 @@
         <v>134</v>
       </c>
       <c r="B135" s="7"/>
-      <c r="C135" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D135" s="37"/>
-      <c r="E135" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
@@ -6412,13 +6202,9 @@
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N135" s="37"/>
-      <c r="O135" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
       <c r="P135" s="7"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
@@ -6443,14 +6229,12 @@
       <c r="A136" s="3">
         <v>135</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C136" s="21"/>
-      <c r="D136" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E136" s="5"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
@@ -6459,13 +6243,9 @@
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
-      <c r="N136" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O136" s="22"/>
-      <c r="P136" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="N136" s="5"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="7"/>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
       <c r="S136" s="5"/>
@@ -6490,35 +6270,27 @@
         <v>136</v>
       </c>
       <c r="B137" s="7"/>
-      <c r="C137" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" s="13"/>
-      <c r="E137" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E137" s="27"/>
       <c r="F137" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G137" s="37"/>
-      <c r="H137" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K137" s="37"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
       <c r="L137" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M137" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N137" s="13"/>
-      <c r="O137" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="M137" s="27"/>
+      <c r="N137" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O137" s="6"/>
       <c r="P137" s="7"/>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
@@ -6545,25 +6317,17 @@
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E138" s="13"/>
-      <c r="F138" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
-      <c r="L138" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M138" s="13"/>
-      <c r="N138" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
       <c r="O138" s="6"/>
       <c r="P138" s="7"/>
       <c r="Q138" s="5"/>
@@ -6591,29 +6355,25 @@
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="4"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F139" s="13"/>
-      <c r="G139" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I139" s="37"/>
-      <c r="J139" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K139" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L139" s="13"/>
-      <c r="M139" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N139" s="5"/>
+      <c r="D139" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E139" s="13"/>
+      <c r="F139" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M139" s="13"/>
+      <c r="N139" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="O139" s="6"/>
       <c r="P139" s="7"/>
       <c r="Q139" s="5"/>
@@ -6643,21 +6403,13 @@
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" s="13"/>
-      <c r="H140" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
       <c r="I140" s="5"/>
-      <c r="J140" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K140" s="13"/>
-      <c r="L140" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
       <c r="O140" s="6"/>
@@ -6686,27 +6438,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="7"/>
-      <c r="C141" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I141" s="20"/>
-      <c r="J141" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="H141" s="5"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="O141" s="6"/>
       <c r="P141" s="7"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
@@ -6732,35 +6476,8 @@
         <v>141</v>
       </c>
       <c r="B142" s="7"/>
-      <c r="C142" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" s="13"/>
-      <c r="H142" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K142" s="13"/>
-      <c r="L142" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O142" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="C142" s="4"/>
+      <c r="O142" s="6"/>
       <c r="P142" s="7"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
@@ -6786,31 +6503,8 @@
         <v>142</v>
       </c>
       <c r="B143" s="7"/>
-      <c r="C143" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" s="13"/>
-      <c r="G143" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L143" s="13"/>
-      <c r="M143" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N143" s="5"/>
-      <c r="O143" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C143" s="4"/>
+      <c r="O143" s="6"/>
       <c r="P143" s="7"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
@@ -6837,25 +6531,17 @@
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="13"/>
-      <c r="F144" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="8"/>
       <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
+      <c r="I144" t="s">
+        <v>56</v>
+      </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M144" s="13"/>
-      <c r="N144" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
       <c r="O144" s="6"/>
       <c r="P144" s="7"/>
       <c r="Q144" s="5"/>
@@ -6882,27 +6568,23 @@
         <v>144</v>
       </c>
       <c r="B145" s="7"/>
-      <c r="C145" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
+      <c r="H145" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I145" s="27"/>
+      <c r="J145" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
-      <c r="M145" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N145" s="13"/>
-      <c r="O145" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="6"/>
       <c r="P145" s="7"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
@@ -6927,33 +6609,21 @@
       <c r="A146" s="3">
         <v>145</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C146" s="21"/>
-      <c r="D146" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="B146" s="7"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
-      <c r="H146" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I146" s="37"/>
-      <c r="J146" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
-      <c r="N146" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O146" s="22"/>
-      <c r="P146" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="N146" s="5"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="7"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
       <c r="S146" s="5"/>
@@ -6983,9 +6653,13 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
+      <c r="H147" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I147" s="13"/>
+      <c r="J147" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
@@ -7018,27 +6692,15 @@
       <c r="B148" s="7"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F148" s="37"/>
-      <c r="G148" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I148" s="13"/>
-      <c r="J148" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K148" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L148" s="37"/>
-      <c r="M148" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
       <c r="N148" s="5"/>
       <c r="O148" s="6"/>
       <c r="P148" s="7"/>
@@ -7067,25 +6729,6 @@
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="4"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H149" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I149" s="5"/>
-      <c r="J149" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K149" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L149" s="5"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
       <c r="O149" s="6"/>
       <c r="P149" s="7"/>
       <c r="Q149" s="5"/>
@@ -7112,35 +6755,8 @@
         <v>149</v>
       </c>
       <c r="B150" s="7"/>
-      <c r="C150" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D150" s="37"/>
-      <c r="E150" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F150" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L150" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M150" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N150" s="37"/>
-      <c r="O150" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="C150" s="5"/>
+      <c r="O150" s="5"/>
       <c r="P150" s="7"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
@@ -7167,25 +6783,6 @@
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="4"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M151" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N151" s="5"/>
       <c r="O151" s="6"/>
       <c r="P151" s="7"/>
       <c r="Q151" s="5"/>
@@ -7213,24 +6810,8 @@
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N152" s="13" t="s">
-        <v>19</v>
+      <c r="M152" t="s">
+        <v>56</v>
       </c>
       <c r="O152" s="6"/>
       <c r="P152" s="7"/>
@@ -7258,27 +6839,27 @@
         <v>152</v>
       </c>
       <c r="B153" s="7"/>
-      <c r="C153" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D153" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E153" s="27"/>
+      <c r="F153" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O153" s="22" t="s">
-        <v>19</v>
-      </c>
+      <c r="L153" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M153" s="27"/>
+      <c r="N153" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O153" s="6"/>
       <c r="P153" s="7"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
@@ -7303,12 +6884,8 @@
       <c r="A154" s="3">
         <v>153</v>
       </c>
-      <c r="B154" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>53</v>
-      </c>
+      <c r="B154" s="7"/>
+      <c r="C154" s="4"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
@@ -7320,12 +6897,8 @@
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
-      <c r="O154" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="P154" s="33" t="s">
-        <v>53</v>
-      </c>
+      <c r="O154" s="6"/>
+      <c r="P154" s="7"/>
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
       <c r="S154" s="5"/>
@@ -7351,19 +6924,25 @@
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
+      <c r="D155" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E155" s="13"/>
+      <c r="F155" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
-      <c r="I155" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
+      <c r="L155" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M155" s="13"/>
+      <c r="N155" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="O155" s="6"/>
       <c r="P155" s="7"/>
       <c r="Q155" s="5"/>
@@ -7434,9 +7013,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
-      <c r="I157" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
@@ -7505,29 +7082,23 @@
       <c r="A159" s="3">
         <v>158</v>
       </c>
-      <c r="B159" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C159" s="21"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M159" s="13"/>
-      <c r="N159" s="13"/>
-      <c r="O159" s="22"/>
-      <c r="P159" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="K159" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="7"/>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
       <c r="S159" s="5"/>
@@ -7559,7 +7130,9 @@
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
+      <c r="J160" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
@@ -7596,7 +7169,9 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
+      <c r="I161" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
@@ -7672,7 +7247,9 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
+      <c r="I163" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
       <c r="L163" s="5"/>
@@ -7704,23 +7281,19 @@
         <v>163</v>
       </c>
       <c r="B164" s="7"/>
-      <c r="C164" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="37"/>
-      <c r="K164" s="37"/>
-      <c r="L164" s="37"/>
-      <c r="M164" s="37"/>
-      <c r="N164" s="37"/>
-      <c r="O164" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="6"/>
       <c r="P164" s="7"/>
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
@@ -7752,7 +7325,9 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
+      <c r="I165" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
@@ -7783,25 +7358,21 @@
       <c r="A166" s="3">
         <v>165</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C166" s="21"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="13"/>
-      <c r="J166" s="13"/>
-      <c r="K166" s="13"/>
-      <c r="L166" s="13"/>
-      <c r="M166" s="13"/>
-      <c r="N166" s="13"/>
-      <c r="O166" s="22"/>
-      <c r="P166" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="B166" s="7"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="7"/>
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
       <c r="S166" s="5"/>
@@ -7832,7 +7403,9 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
+      <c r="I167" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
       <c r="L167" s="5"/>
@@ -8041,23 +7614,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="7"/>
-      <c r="C173" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
-      <c r="G173" s="37"/>
-      <c r="H173" s="37"/>
-      <c r="I173" s="37"/>
-      <c r="J173" s="37"/>
-      <c r="K173" s="37"/>
-      <c r="L173" s="37"/>
-      <c r="M173" s="37"/>
-      <c r="N173" s="37"/>
-      <c r="O173" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="C173" s="4"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="6"/>
       <c r="P173" s="7"/>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
@@ -8082,23 +7651,25 @@
       <c r="A174" s="3">
         <v>173</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C174" s="23"/>
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
-      <c r="H174" s="24"/>
-      <c r="I174" s="24"/>
-      <c r="J174" s="24"/>
-      <c r="K174" s="24"/>
-      <c r="L174" s="24"/>
-      <c r="M174" s="24"/>
-      <c r="N174" s="24"/>
-      <c r="O174" s="25"/>
-      <c r="P174" s="29"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I174" s="27"/>
+      <c r="J174" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="7"/>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
       <c r="S174" s="5"/>
@@ -8122,23 +7693,21 @@
       <c r="A175" s="3">
         <v>174</v>
       </c>
-      <c r="B175" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C175" s="23"/>
-      <c r="D175" s="24"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
-      <c r="H175" s="24"/>
-      <c r="I175" s="24"/>
-      <c r="J175" s="24"/>
-      <c r="K175" s="24"/>
-      <c r="L175" s="24"/>
-      <c r="M175" s="24"/>
-      <c r="N175" s="24"/>
-      <c r="O175" s="25"/>
-      <c r="P175" s="29"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="5"/>
+      <c r="N175" s="5"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="7"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
       <c r="S175" s="5"/>
@@ -8162,21 +7731,25 @@
       <c r="A176" s="3">
         <v>175</v>
       </c>
-      <c r="B176" s="7"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5"/>
-      <c r="K176" s="5"/>
-      <c r="L176" s="5"/>
-      <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
-      <c r="O176" s="6"/>
-      <c r="P176" s="7"/>
+      <c r="B176" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C176" s="20"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="13"/>
+      <c r="L176" s="13"/>
+      <c r="M176" s="13"/>
+      <c r="N176" s="13"/>
+      <c r="O176" s="21"/>
+      <c r="P176" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
       <c r="S176" s="5"/>
@@ -8200,21 +7773,29 @@
       <c r="A177" s="3">
         <v>176</v>
       </c>
-      <c r="B177" s="7"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
+      <c r="B177" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" s="20"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
-      <c r="K177" s="5"/>
-      <c r="L177" s="5"/>
-      <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
-      <c r="O177" s="6"/>
-      <c r="P177" s="7"/>
+      <c r="K177" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L177" s="13"/>
+      <c r="M177" s="13"/>
+      <c r="N177" s="13"/>
+      <c r="O177" s="21"/>
+      <c r="P177" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
       <c r="S177" s="5"/>
@@ -8285,6 +7866,11 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
+      <c r="K179" s="8"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="8"/>
+      <c r="N179" s="8"/>
+      <c r="O179" s="8"/>
       <c r="P179" s="7"/>
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
@@ -8310,27 +7896,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="7"/>
-      <c r="C180" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D180" s="37"/>
-      <c r="E180" s="37"/>
-      <c r="F180" s="37"/>
-      <c r="G180" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="C180" s="4"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
-      <c r="K180" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L180" s="37"/>
-      <c r="M180" s="37"/>
-      <c r="N180" s="37"/>
-      <c r="O180" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
       <c r="P180" s="7"/>
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
@@ -8355,23 +7933,21 @@
       <c r="A181" s="3">
         <v>180</v>
       </c>
-      <c r="B181" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C181" s="23"/>
-      <c r="D181" s="24"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="24"/>
-      <c r="H181" s="24"/>
-      <c r="I181" s="24"/>
-      <c r="J181" s="24"/>
-      <c r="K181" s="24"/>
-      <c r="L181" s="24"/>
-      <c r="M181" s="24"/>
-      <c r="N181" s="24"/>
-      <c r="O181" s="25"/>
-      <c r="P181" s="29"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="7"/>
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
       <c r="S181" s="5"/>
@@ -8395,23 +7971,21 @@
       <c r="A182" s="3">
         <v>181</v>
       </c>
-      <c r="B182" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C182" s="23"/>
-      <c r="D182" s="24"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="24"/>
-      <c r="G182" s="24"/>
-      <c r="H182" s="24"/>
-      <c r="I182" s="24"/>
-      <c r="J182" s="24"/>
-      <c r="K182" s="24"/>
-      <c r="L182" s="24"/>
-      <c r="M182" s="24"/>
-      <c r="N182" s="24"/>
-      <c r="O182" s="25"/>
-      <c r="P182" s="29"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="7"/>
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
       <c r="S182" s="5"/>
@@ -8513,6 +8087,7 @@
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="4"/>
+      <c r="D185" s="8"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
@@ -8522,6 +8097,7 @@
       <c r="K185" s="5"/>
       <c r="L185" s="5"/>
       <c r="M185" s="5"/>
+      <c r="N185" s="8"/>
       <c r="O185" s="6"/>
       <c r="P185" s="7"/>
       <c r="Q185" s="5"/>
@@ -8549,18 +8125,17 @@
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="4"/>
-      <c r="D186" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
       <c r="K186" s="5"/>
       <c r="L186" s="5"/>
       <c r="M186" s="5"/>
-      <c r="N186" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="N186" s="5"/>
       <c r="O186" s="6"/>
       <c r="P186" s="7"/>
       <c r="Q186" s="5"/>
@@ -8588,25 +8163,19 @@
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="4"/>
-      <c r="D187" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
-      <c r="H187" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I187" s="37"/>
       <c r="J187" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K187" s="5"/>
-      <c r="L187" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="K187" s="27"/>
+      <c r="L187" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="M187" s="5"/>
-      <c r="N187" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="N187" s="5"/>
       <c r="O187" s="6"/>
       <c r="P187" s="7"/>
       <c r="Q187" s="5"/>
@@ -8632,23 +8201,21 @@
       <c r="A188" s="3">
         <v>187</v>
       </c>
-      <c r="B188" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C188" s="23"/>
-      <c r="D188" s="24"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="24"/>
-      <c r="G188" s="24"/>
-      <c r="H188" s="24"/>
-      <c r="I188" s="24"/>
-      <c r="J188" s="24"/>
-      <c r="K188" s="24"/>
-      <c r="L188" s="24"/>
-      <c r="M188" s="24"/>
-      <c r="N188" s="24"/>
-      <c r="O188" s="25"/>
-      <c r="P188" s="29"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="5"/>
+      <c r="N188" s="5"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="7"/>
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
       <c r="S188" s="5"/>
@@ -8673,22 +8240,24 @@
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C189" s="23"/>
-      <c r="D189" s="24"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="24"/>
-      <c r="G189" s="24"/>
-      <c r="H189" s="24"/>
-      <c r="I189" s="24"/>
-      <c r="J189" s="24"/>
-      <c r="K189" s="24"/>
-      <c r="L189" s="24"/>
-      <c r="M189" s="24"/>
-      <c r="N189" s="24"/>
-      <c r="O189" s="25"/>
-      <c r="P189" s="29"/>
+        <v>54</v>
+      </c>
+      <c r="C189" s="20"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="13"/>
+      <c r="K189" s="13"/>
+      <c r="L189" s="13"/>
+      <c r="M189" s="13"/>
+      <c r="N189" s="13"/>
+      <c r="O189" s="21"/>
+      <c r="P189" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
       <c r="S189" s="5"/>
@@ -8712,21 +8281,29 @@
       <c r="A190" s="3">
         <v>189</v>
       </c>
-      <c r="B190" s="7"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
+      <c r="B190" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C190" s="20"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="18"/>
+      <c r="H190" s="18"/>
+      <c r="I190" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
       <c r="L190" s="5"/>
-      <c r="M190" s="5"/>
-      <c r="N190" s="5"/>
-      <c r="O190" s="6"/>
-      <c r="P190" s="7"/>
+      <c r="M190" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N190" s="13"/>
+      <c r="O190" s="21"/>
+      <c r="P190" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
       <c r="S190" s="5"/>
@@ -8792,9 +8369,16 @@
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
-      <c r="M192" s="5"/>
-      <c r="N192" s="5"/>
-      <c r="O192" s="6"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="8"/>
+      <c r="L192" s="8"/>
+      <c r="M192" s="8"/>
+      <c r="N192" s="8"/>
+      <c r="O192" s="8"/>
       <c r="P192" s="7"/>
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
@@ -8823,20 +8407,16 @@
       <c r="C193" s="4"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
-      <c r="F193" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
-      <c r="L193" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="L193" s="5"/>
       <c r="M193" s="5"/>
       <c r="N193" s="5"/>
-      <c r="O193" s="6"/>
+      <c r="O193" s="5"/>
       <c r="P193" s="7"/>
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
@@ -8863,25 +8443,17 @@
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="4"/>
-      <c r="D194" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E194" s="37"/>
-      <c r="F194" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
-      <c r="L194" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M194" s="37"/>
-      <c r="N194" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
       <c r="O194" s="6"/>
       <c r="P194" s="7"/>
       <c r="Q194" s="5"/>
@@ -8907,23 +8479,21 @@
       <c r="A195" s="3">
         <v>194</v>
       </c>
-      <c r="B195" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C195" s="23"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="24"/>
-      <c r="G195" s="24"/>
-      <c r="H195" s="24"/>
-      <c r="I195" s="24"/>
-      <c r="J195" s="24"/>
-      <c r="K195" s="24"/>
-      <c r="L195" s="24"/>
-      <c r="M195" s="24"/>
-      <c r="N195" s="24"/>
-      <c r="O195" s="25"/>
-      <c r="P195" s="29"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="5"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="7"/>
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
       <c r="S195" s="5"/>
@@ -8947,23 +8517,21 @@
       <c r="A196" s="3">
         <v>195</v>
       </c>
-      <c r="B196" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C196" s="23"/>
-      <c r="D196" s="24"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="24"/>
-      <c r="G196" s="24"/>
-      <c r="H196" s="24"/>
-      <c r="I196" s="24"/>
-      <c r="J196" s="24"/>
-      <c r="K196" s="24"/>
-      <c r="L196" s="24"/>
-      <c r="M196" s="24"/>
-      <c r="N196" s="24"/>
-      <c r="O196" s="25"/>
-      <c r="P196" s="29"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="7"/>
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
       <c r="S196" s="5"/>
@@ -9027,7 +8595,7 @@
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="4"/>
-      <c r="D198" s="5"/>
+      <c r="D198" s="8"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
@@ -9037,7 +8605,7 @@
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
       <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
+      <c r="N198" s="8"/>
       <c r="O198" s="6"/>
       <c r="P198" s="7"/>
       <c r="Q198" s="5"/>
@@ -9069,9 +8637,9 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="8"/>
+      <c r="J199" s="8"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
       <c r="M199" s="5"/>
@@ -9107,15 +8675,11 @@
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
-      <c r="H200" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I200" s="37"/>
-      <c r="J200" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K200" s="5"/>
-      <c r="L200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="8"/>
+      <c r="L200" s="8"/>
       <c r="M200" s="5"/>
       <c r="N200" s="5"/>
       <c r="O200" s="6"/>
@@ -9185,16 +8749,12 @@
       <c r="C202" s="4"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
-      <c r="F202" s="11"/>
-      <c r="G202" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H202" s="13"/>
-      <c r="I202" s="13"/>
-      <c r="J202" s="13"/>
-      <c r="K202" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
       <c r="L202" s="5"/>
       <c r="M202" s="5"/>
       <c r="N202" s="5"/>
@@ -9228,17 +8788,13 @@
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
-      <c r="G203" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
-      <c r="K203" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L203" s="5"/>
-      <c r="M203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="8"/>
+      <c r="M203" s="8"/>
       <c r="N203" s="5"/>
       <c r="O203" s="6"/>
       <c r="P203" s="7"/>
@@ -9270,11 +8826,11 @@
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
-      <c r="G204" s="27"/>
+      <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
-      <c r="K204" s="27"/>
+      <c r="K204" s="5"/>
       <c r="L204" s="5"/>
       <c r="M204" s="5"/>
       <c r="N204" s="5"/>
@@ -9308,15 +8864,15 @@
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
-      <c r="G205" s="27"/>
+      <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
-      <c r="K205" s="27"/>
-      <c r="L205" s="5"/>
-      <c r="M205" s="5"/>
-      <c r="N205" s="5"/>
-      <c r="O205" s="6"/>
+      <c r="K205" s="8"/>
+      <c r="L205" s="8"/>
+      <c r="M205" s="8"/>
+      <c r="N205" s="8"/>
+      <c r="O205" s="8"/>
       <c r="P205" s="7"/>
       <c r="Q205" s="5"/>
       <c r="R205" s="5"/>
@@ -9343,18 +8899,18 @@
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="4"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="27"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8"/>
-      <c r="K206" s="27"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
       <c r="L206" s="5"/>
       <c r="M206" s="5"/>
       <c r="N206" s="5"/>
-      <c r="O206" s="6"/>
+      <c r="O206" s="5"/>
       <c r="P206" s="7"/>
       <c r="Q206" s="5"/>
       <c r="R206" s="5"/>
@@ -9381,23 +8937,29 @@
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="4"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="27"/>
-      <c r="H207" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I207" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J207" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K207" s="27"/>
+      <c r="D207" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K207" s="5"/>
       <c r="L207" s="5"/>
-      <c r="M207" s="5"/>
-      <c r="N207" s="5"/>
+      <c r="M207" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N207" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="O207" s="6"/>
       <c r="P207" s="7"/>
       <c r="Q207" s="5"/>
@@ -9428,15 +8990,11 @@
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
-      <c r="K208" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="K208" s="5"/>
       <c r="L208" s="5"/>
       <c r="M208" s="5"/>
       <c r="N208" s="5"/>
@@ -9467,29 +9025,17 @@
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="4"/>
-      <c r="D209" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E209" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H209" s="13"/>
-      <c r="I209" s="13"/>
-      <c r="J209" s="13"/>
-      <c r="K209" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
       <c r="L209" s="5"/>
-      <c r="M209" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="N209" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="M209" s="5"/>
+      <c r="N209" s="5"/>
       <c r="O209" s="6"/>
       <c r="P209" s="7"/>
       <c r="Q209" s="5"/>
@@ -9553,29 +9099,21 @@
       <c r="A211" s="3">
         <v>210</v>
       </c>
-      <c r="B211" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C211" s="21"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B211" s="7"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
-      <c r="K211" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L211" s="13"/>
-      <c r="M211" s="13"/>
-      <c r="N211" s="13"/>
-      <c r="O211" s="22"/>
-      <c r="P211" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
+      <c r="M211" s="5"/>
+      <c r="N211" s="8"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="7"/>
       <c r="Q211" s="5"/>
       <c r="R211" s="5"/>
       <c r="S211" s="5"/>
@@ -9605,9 +9143,9 @@
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="5"/>
+      <c r="H212" s="8"/>
+      <c r="I212" s="8"/>
+      <c r="J212" s="8"/>
       <c r="K212" s="5"/>
       <c r="L212" s="5"/>
       <c r="M212" s="5"/>
@@ -9641,13 +9179,13 @@
       <c r="C213" s="4"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5"/>
-      <c r="K213" s="5"/>
-      <c r="L213" s="5"/>
+      <c r="F213" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G213" s="27"/>
+      <c r="H213" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="M213" s="5"/>
       <c r="N213" s="5"/>
       <c r="O213" s="6"/>
@@ -9713,23 +9251,24 @@
       <c r="A215" s="3">
         <v>214</v>
       </c>
-      <c r="B215" s="7"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="J215" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="B215" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C215" s="20"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
+      <c r="G215" s="13"/>
+      <c r="H215" s="13"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="13"/>
       <c r="K215" s="13"/>
       <c r="L215" s="13"/>
       <c r="M215" s="13"/>
       <c r="N215" s="13"/>
-      <c r="O215" s="22"/>
+      <c r="O215" s="21"/>
       <c r="P215" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q215" s="5"/>
       <c r="R215" s="5"/>
@@ -9754,21 +9293,29 @@
       <c r="A216" s="3">
         <v>215</v>
       </c>
-      <c r="B216" s="7"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
+      <c r="B216" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C216" s="20"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
-      <c r="J216" s="5"/>
-      <c r="K216" s="5"/>
-      <c r="L216" s="5"/>
-      <c r="M216" s="5"/>
-      <c r="N216" s="5"/>
-      <c r="O216" s="6"/>
-      <c r="P216" s="7"/>
+      <c r="I216" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J216" s="13"/>
+      <c r="K216" s="13"/>
+      <c r="L216" s="18"/>
+      <c r="M216" s="18"/>
+      <c r="N216" s="13"/>
+      <c r="O216" s="21"/>
+      <c r="P216" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q216" s="5"/>
       <c r="R216" s="5"/>
       <c r="S216" s="5"/>
@@ -9868,19 +9415,16 @@
       <c r="A219" s="3">
         <v>218</v>
       </c>
-      <c r="B219" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C219" s="21"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
-      <c r="F219" s="13"/>
-      <c r="G219" s="13"/>
-      <c r="H219" s="13"/>
-      <c r="I219" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B219" s="7"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
       <c r="J219" s="5"/>
+      <c r="K219" s="8"/>
       <c r="L219" s="5"/>
       <c r="M219" s="5"/>
       <c r="N219" s="5"/>
@@ -9993,16 +9537,13 @@
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
-      <c r="K222" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L222" s="13"/>
-      <c r="M222" s="13"/>
-      <c r="N222" s="13"/>
-      <c r="O222" s="22"/>
-      <c r="P222" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="J222" s="8"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="5"/>
+      <c r="M222" s="5"/>
+      <c r="N222" s="5"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="7"/>
       <c r="Q222" s="5"/>
       <c r="R222" s="5"/>
       <c r="S222" s="5"/>
@@ -10031,6 +9572,11 @@
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
+      <c r="I223" s="8"/>
+      <c r="J223" s="8"/>
+      <c r="K223" s="8"/>
       <c r="L223" s="5"/>
       <c r="M223" s="5"/>
       <c r="N223" s="5"/>
@@ -10061,6 +9607,14 @@
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="4"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
+      <c r="G224" s="8"/>
+      <c r="H224" s="8"/>
+      <c r="I224" s="8"/>
+      <c r="J224" s="8"/>
+      <c r="K224" s="8"/>
       <c r="L224" s="5"/>
       <c r="M224" s="5"/>
       <c r="N224" s="5"/>
@@ -10089,22 +9643,31 @@
       <c r="A225" s="3">
         <v>224</v>
       </c>
-      <c r="B225" s="7"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="5"/>
-      <c r="H225" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I225" s="13"/>
-      <c r="J225" s="13"/>
-      <c r="K225" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L225" s="5"/>
-      <c r="M225" s="5"/>
-      <c r="N225" s="5"/>
-      <c r="O225" s="6"/>
-      <c r="P225" s="7"/>
+      <c r="B225" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C225" s="20"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="18"/>
+      <c r="F225" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G225" s="8"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M225" s="13"/>
+      <c r="N225" s="13"/>
+      <c r="O225" s="21"/>
+      <c r="P225" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q225" s="5"/>
       <c r="R225" s="5"/>
       <c r="S225" s="5"/>
@@ -10131,6 +9694,10 @@
       <c r="B226" s="7"/>
       <c r="C226" s="4"/>
       <c r="D226" s="5"/>
+      <c r="E226" s="8"/>
+      <c r="F226" s="8"/>
+      <c r="G226" s="8"/>
+      <c r="H226" s="8"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
       <c r="K226" s="5"/>
@@ -10203,14 +9770,10 @@
       <c r="B228" s="7"/>
       <c r="C228" s="4"/>
       <c r="D228" s="5"/>
-      <c r="E228" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F228" s="13"/>
-      <c r="G228" s="13"/>
-      <c r="H228" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
@@ -10242,23 +9805,31 @@
       <c r="A229" s="3">
         <v>228</v>
       </c>
-      <c r="B229" s="7"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="5"/>
+      <c r="B229" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C229" s="20"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G229" s="8"/>
       <c r="H229" s="5"/>
-      <c r="I229" s="5"/>
+      <c r="I229" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J229" s="5"/>
       <c r="K229" s="5"/>
-      <c r="L229" s="5"/>
-      <c r="M229" s="5"/>
-      <c r="N229" s="5"/>
-      <c r="O229" s="6"/>
-      <c r="P229" s="7"/>
+      <c r="L229" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M229" s="13"/>
+      <c r="N229" s="13"/>
+      <c r="O229" s="21"/>
+      <c r="P229" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q229" s="5"/>
       <c r="R229" s="5"/>
       <c r="S229" s="5"/>
@@ -10284,9 +9855,7 @@
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="4"/>
-      <c r="D230" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
@@ -10324,9 +9893,7 @@
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="4"/>
-      <c r="D231" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
@@ -10363,13 +9930,9 @@
         <v>231</v>
       </c>
       <c r="B232" s="7"/>
-      <c r="C232" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D232" s="37"/>
-      <c r="E232" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="C232" s="4"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
@@ -10404,21 +9967,31 @@
       <c r="A233" s="3">
         <v>232</v>
       </c>
-      <c r="B233" s="7"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
+      <c r="B233" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C233" s="20"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13"/>
+      <c r="G233" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
-      <c r="J233" s="5"/>
+      <c r="J233" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="K233" s="5"/>
       <c r="L233" s="5"/>
-      <c r="M233" s="5"/>
-      <c r="N233" s="5"/>
-      <c r="O233" s="6"/>
-      <c r="P233" s="7"/>
+      <c r="M233" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N233" s="13"/>
+      <c r="O233" s="21"/>
+      <c r="P233" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q233" s="5"/>
       <c r="R233" s="5"/>
       <c r="S233" s="5"/>
@@ -10442,15 +10015,12 @@
       <c r="A234" s="3">
         <v>233</v>
       </c>
-      <c r="B234" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C234" s="21"/>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
-      <c r="F234" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B234" s="7"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="8"/>
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
@@ -10487,6 +10057,11 @@
       <c r="C235" s="4"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+      <c r="H235" s="8"/>
+      <c r="I235" s="8"/>
+      <c r="J235" s="8"/>
       <c r="K235" s="5"/>
       <c r="L235" s="5"/>
       <c r="M235" s="5"/>
@@ -10553,21 +10128,31 @@
       <c r="A237" s="3">
         <v>236</v>
       </c>
-      <c r="B237" s="7"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
+      <c r="B237" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C237" s="20"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13"/>
+      <c r="G237" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
-      <c r="J237" s="5"/>
+      <c r="J237" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="K237" s="5"/>
       <c r="L237" s="5"/>
-      <c r="M237" s="5"/>
-      <c r="N237" s="5"/>
-      <c r="O237" s="6"/>
-      <c r="P237" s="7"/>
+      <c r="M237" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N237" s="13"/>
+      <c r="O237" s="21"/>
+      <c r="P237" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q237" s="5"/>
       <c r="R237" s="5"/>
       <c r="S237" s="5"/>
@@ -10633,14 +10218,10 @@
       <c r="C239" s="4"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
-      <c r="F239" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G239" s="13"/>
-      <c r="H239" s="13"/>
-      <c r="I239" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
       <c r="L239" s="5"/>
@@ -10682,14 +10263,10 @@
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
       <c r="L240" s="5"/>
-      <c r="M240" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N240" s="13"/>
-      <c r="O240" s="13"/>
-      <c r="P240" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="M240" s="5"/>
+      <c r="N240" s="5"/>
+      <c r="O240" s="5"/>
+      <c r="P240" s="7"/>
       <c r="Q240" s="5"/>
       <c r="R240" s="5"/>
       <c r="S240" s="5"/>
@@ -10713,21 +10290,31 @@
       <c r="A241" s="3">
         <v>240</v>
       </c>
-      <c r="B241" s="7"/>
-      <c r="C241" s="4"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="5"/>
+      <c r="B241" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C241" s="20"/>
+      <c r="D241" s="18"/>
+      <c r="E241" s="18"/>
+      <c r="F241" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="G241" s="8"/>
       <c r="H241" s="8"/>
-      <c r="I241" s="8"/>
+      <c r="I241" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="J241" s="8"/>
       <c r="K241" s="5"/>
-      <c r="L241" s="5"/>
-      <c r="M241" s="5"/>
-      <c r="N241" s="5"/>
-      <c r="O241" s="5"/>
-      <c r="P241" s="7"/>
+      <c r="L241" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M241" s="13"/>
+      <c r="N241" s="13"/>
+      <c r="O241" s="13"/>
+      <c r="P241" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q241" s="5"/>
       <c r="R241" s="5"/>
       <c r="S241" s="5"/>
@@ -10865,21 +10452,31 @@
       <c r="A245" s="3">
         <v>244</v>
       </c>
-      <c r="B245" s="7"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
+      <c r="B245" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C245" s="20"/>
+      <c r="D245" s="13"/>
+      <c r="E245" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
+      <c r="H245" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
-      <c r="K245" s="5"/>
-      <c r="L245" s="5"/>
-      <c r="M245" s="5"/>
-      <c r="N245" s="5"/>
-      <c r="O245" s="6"/>
-      <c r="P245" s="7"/>
+      <c r="K245" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L245" s="13"/>
+      <c r="M245" s="13"/>
+      <c r="N245" s="13"/>
+      <c r="O245" s="21"/>
+      <c r="P245" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q245" s="5"/>
       <c r="R245" s="5"/>
       <c r="S245" s="5"/>
@@ -10903,29 +10500,21 @@
       <c r="A246" s="3">
         <v>245</v>
       </c>
-      <c r="B246" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C246" s="21"/>
-      <c r="D246" s="13"/>
-      <c r="E246" s="13"/>
-      <c r="F246" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B246" s="7"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
       <c r="K246" s="5"/>
-      <c r="L246" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M246" s="13"/>
-      <c r="N246" s="13"/>
-      <c r="O246" s="22"/>
-      <c r="P246" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="L246" s="5"/>
+      <c r="M246" s="5"/>
+      <c r="N246" s="5"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="7"/>
       <c r="Q246" s="5"/>
       <c r="R246" s="5"/>
       <c r="S246" s="5"/>
@@ -10993,13 +10582,9 @@
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
-      <c r="H248" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I248" s="13"/>
-      <c r="J248" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
       <c r="K248" s="5"/>
       <c r="L248" s="5"/>
       <c r="M248" s="5"/>
@@ -11073,6 +10658,9 @@
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
+      <c r="H250" s="8"/>
+      <c r="I250" s="8"/>
+      <c r="J250" s="8"/>
       <c r="K250" s="5"/>
       <c r="L250" s="5"/>
       <c r="M250" s="5"/>
@@ -11140,29 +10728,25 @@
       <c r="A252" s="3">
         <v>251</v>
       </c>
-      <c r="B252" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C252" s="21"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="13"/>
-      <c r="F252" s="13"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
       <c r="G252" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H252" s="5"/>
-      <c r="I252" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="H252" s="13"/>
+      <c r="I252" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J252" s="5"/>
-      <c r="K252" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L252" s="13"/>
-      <c r="M252" s="13"/>
-      <c r="N252" s="13"/>
-      <c r="O252" s="13"/>
-      <c r="P252" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="K252" s="5"/>
+      <c r="L252" s="5"/>
+      <c r="M252" s="5"/>
+      <c r="N252" s="5"/>
+      <c r="O252" s="5"/>
+      <c r="P252" s="7"/>
       <c r="Q252" s="5"/>
       <c r="R252" s="5"/>
       <c r="S252" s="5"/>
@@ -11229,9 +10813,6 @@
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
-      <c r="I254" s="5"/>
       <c r="J254" s="5"/>
       <c r="K254" s="5"/>
       <c r="L254" s="5"/>
@@ -11267,9 +10848,9 @@
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
-      <c r="G255" s="5"/>
-      <c r="H255" s="5"/>
-      <c r="I255" s="5"/>
+      <c r="H255" t="s">
+        <v>56</v>
+      </c>
       <c r="J255" s="5"/>
       <c r="K255" s="5"/>
       <c r="L255" s="5"/>
@@ -11306,9 +10887,10 @@
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
-      <c r="H256" s="5"/>
+      <c r="H256" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="I256" s="5"/>
-      <c r="J256" s="5"/>
       <c r="K256" s="5"/>
       <c r="L256" s="5"/>
       <c r="M256" s="5"/>
@@ -11343,10 +10925,13 @@
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
-      <c r="G257" s="5"/>
-      <c r="H257" s="5"/>
-      <c r="I257" s="5"/>
-      <c r="J257" s="5"/>
+      <c r="G257" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H257" s="27"/>
+      <c r="I257" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="K257" s="5"/>
       <c r="L257" s="5"/>
       <c r="M257" s="5"/>
@@ -11382,13 +10967,6 @@
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
-      <c r="H258" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I258" s="13"/>
-      <c r="J258" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="K258" s="5"/>
       <c r="L258" s="5"/>
       <c r="M258" s="5"/>
@@ -11422,8 +11000,15 @@
       <c r="C259" s="4"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5"/>
+      <c r="F259" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G259" s="13"/>
+      <c r="H259" s="18"/>
+      <c r="I259" s="18"/>
+      <c r="J259" t="s">
+        <v>55</v>
+      </c>
       <c r="K259" s="5"/>
       <c r="L259" s="5"/>
       <c r="M259" s="5"/>
@@ -11459,9 +11044,6 @@
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
-      <c r="H260" s="5"/>
-      <c r="I260" s="5"/>
-      <c r="J260" s="5"/>
       <c r="K260" s="5"/>
       <c r="L260" s="5"/>
       <c r="M260" s="5"/>
@@ -11497,13 +11079,6 @@
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
-      <c r="H261" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I261" s="37"/>
-      <c r="J261" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="K261" s="5"/>
       <c r="L261" s="5"/>
       <c r="M261" s="5"/>
@@ -11571,25 +11146,21 @@
       <c r="A263" s="3">
         <v>262</v>
       </c>
-      <c r="B263" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C263" s="21"/>
-      <c r="D263" s="13"/>
-      <c r="E263" s="13"/>
-      <c r="F263" s="13"/>
-      <c r="G263" s="13"/>
-      <c r="H263" s="13"/>
-      <c r="I263" s="13"/>
-      <c r="J263" s="13"/>
-      <c r="K263" s="13"/>
-      <c r="L263" s="13"/>
-      <c r="M263" s="13"/>
-      <c r="N263" s="13"/>
-      <c r="O263" s="13"/>
-      <c r="P263" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="B263" s="7"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+      <c r="M263" s="5"/>
+      <c r="N263" s="5"/>
+      <c r="O263" s="5"/>
+      <c r="P263" s="7"/>
       <c r="Q263" s="5"/>
       <c r="R263" s="5"/>
       <c r="S263" s="5"/>
@@ -11698,9 +11269,13 @@
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
-      <c r="K266" s="5"/>
-      <c r="L266" s="5"/>
-      <c r="M266" s="5"/>
+      <c r="K266" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L266" s="13"/>
+      <c r="M266" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="N266" s="5"/>
       <c r="O266" s="5"/>
       <c r="P266" s="7"/>
@@ -11774,9 +11349,6 @@
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
-      <c r="K268" s="5"/>
-      <c r="L268" s="5"/>
-      <c r="M268" s="5"/>
       <c r="N268" s="5"/>
       <c r="O268" s="5"/>
       <c r="P268" s="7"/>
@@ -11812,14 +11384,10 @@
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
-      <c r="K269" s="5"/>
-      <c r="L269" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M269" s="37"/>
-      <c r="N269" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="L269" t="s">
+        <v>56</v>
+      </c>
+      <c r="N269" s="5"/>
       <c r="O269" s="5"/>
       <c r="P269" s="7"/>
       <c r="Q269" s="5"/>
@@ -11855,9 +11423,10 @@
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
       <c r="K270" s="5"/>
-      <c r="L270" s="5"/>
+      <c r="L270" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="M270" s="5"/>
-      <c r="N270" s="5"/>
       <c r="O270" s="5"/>
       <c r="P270" s="7"/>
       <c r="Q270" s="5"/>
@@ -11883,25 +11452,24 @@
       <c r="A271" s="3">
         <v>270</v>
       </c>
-      <c r="B271" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C271" s="21"/>
-      <c r="D271" s="13"/>
-      <c r="E271" s="13"/>
-      <c r="F271" s="13"/>
-      <c r="G271" s="13"/>
-      <c r="H271" s="13"/>
-      <c r="I271" s="13"/>
-      <c r="J271" s="13"/>
-      <c r="K271" s="13"/>
-      <c r="L271" s="13"/>
-      <c r="M271" s="13"/>
-      <c r="N271" s="13"/>
-      <c r="O271" s="13"/>
-      <c r="P271" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="B271" s="7"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L271" s="27"/>
+      <c r="M271" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O271" s="5"/>
+      <c r="P271" s="7"/>
       <c r="Q271" s="5"/>
       <c r="R271" s="5"/>
       <c r="S271" s="5"/>
@@ -11935,9 +11503,6 @@
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
       <c r="K272" s="5"/>
-      <c r="L272" s="5"/>
-      <c r="M272" s="5"/>
-      <c r="N272" s="5"/>
       <c r="O272" s="5"/>
       <c r="P272" s="7"/>
       <c r="Q272" s="5"/>
@@ -11971,11 +11536,15 @@
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
-      <c r="J273" s="5"/>
-      <c r="K273" s="5"/>
-      <c r="L273" s="5"/>
-      <c r="M273" s="5"/>
-      <c r="N273" s="5"/>
+      <c r="J273" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K273" s="13"/>
+      <c r="L273" s="18"/>
+      <c r="M273" s="18"/>
+      <c r="N273" t="s">
+        <v>55</v>
+      </c>
       <c r="O273" s="5"/>
       <c r="P273" s="7"/>
       <c r="Q273" s="5"/>
@@ -12083,13 +11652,9 @@
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
       <c r="G276" s="8"/>
-      <c r="H276" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I276" s="40"/>
-      <c r="J276" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H276" s="8"/>
+      <c r="I276" s="8"/>
+      <c r="J276" s="8"/>
       <c r="K276" s="5"/>
       <c r="L276" s="5"/>
       <c r="M276" s="5"/>
@@ -12157,25 +11722,21 @@
       <c r="A278" s="3">
         <v>277</v>
       </c>
-      <c r="B278" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C278" s="21"/>
-      <c r="D278" s="13"/>
-      <c r="E278" s="13"/>
-      <c r="F278" s="13"/>
-      <c r="G278" s="13"/>
-      <c r="H278" s="13"/>
-      <c r="I278" s="13"/>
-      <c r="J278" s="13"/>
-      <c r="K278" s="13"/>
-      <c r="L278" s="13"/>
-      <c r="M278" s="13"/>
-      <c r="N278" s="13"/>
-      <c r="O278" s="13"/>
-      <c r="P278" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="B278" s="7"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="5"/>
+      <c r="M278" s="5"/>
+      <c r="N278" s="5"/>
+      <c r="O278" s="5"/>
+      <c r="P278" s="7"/>
       <c r="Q278" s="5"/>
       <c r="R278" s="5"/>
       <c r="S278" s="5"/>
@@ -12206,9 +11767,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
-      <c r="I279" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="I279" s="5"/>
       <c r="J279" s="5"/>
       <c r="K279" s="5"/>
       <c r="L279" s="5"/>
@@ -12246,7 +11805,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
       <c r="H280" s="5"/>
-      <c r="I280" s="27"/>
+      <c r="I280" s="5"/>
       <c r="J280" s="5"/>
       <c r="K280" s="5"/>
       <c r="L280" s="5"/>
@@ -12284,7 +11843,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
       <c r="H281" s="5"/>
-      <c r="I281" s="27"/>
+      <c r="I281" s="5"/>
       <c r="J281" s="5"/>
       <c r="K281" s="5"/>
       <c r="L281" s="5"/>
@@ -12319,10 +11878,14 @@
       <c r="C282" s="4"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
-      <c r="F282" s="5"/>
-      <c r="G282" s="5"/>
-      <c r="H282" s="5"/>
-      <c r="I282" s="27"/>
+      <c r="F282" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G282" s="13"/>
+      <c r="H282" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I282" s="5"/>
       <c r="J282" s="5"/>
       <c r="K282" s="5"/>
       <c r="L282" s="5"/>
@@ -12360,7 +11923,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
       <c r="H283" s="5"/>
-      <c r="I283" s="27"/>
+      <c r="I283" s="5"/>
       <c r="J283" s="5"/>
       <c r="K283" s="5"/>
       <c r="L283" s="5"/>
@@ -12395,17 +11958,10 @@
       <c r="C284" s="4"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
-      <c r="F284" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G284" s="5"/>
-      <c r="H284" s="5"/>
-      <c r="I284" s="27"/>
+      <c r="I284" s="5"/>
       <c r="J284" s="5"/>
       <c r="K284" s="5"/>
-      <c r="L284" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="L284" s="5"/>
       <c r="M284" s="5"/>
       <c r="N284" s="5"/>
       <c r="O284" s="5"/>
@@ -12435,23 +11991,16 @@
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="4"/>
-      <c r="E285" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F285" s="40"/>
-      <c r="G285" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H285" s="5"/>
-      <c r="I285" s="27"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="5"/>
+      <c r="G285" t="s">
+        <v>56</v>
+      </c>
+      <c r="I285" s="5"/>
       <c r="J285" s="5"/>
-      <c r="K285" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L285" s="40"/>
-      <c r="M285" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="K285" s="8"/>
+      <c r="L285" s="8"/>
+      <c r="M285" s="8"/>
       <c r="N285" s="5"/>
       <c r="O285" s="5"/>
       <c r="P285" s="7"/>
@@ -12478,23 +12027,22 @@
       <c r="A286" s="3">
         <v>285</v>
       </c>
-      <c r="B286" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C286" s="23"/>
-      <c r="D286" s="24"/>
-      <c r="E286" s="24"/>
-      <c r="F286" s="24"/>
-      <c r="G286" s="24"/>
-      <c r="H286" s="24"/>
-      <c r="I286" s="24"/>
-      <c r="J286" s="24"/>
-      <c r="K286" s="24"/>
-      <c r="L286" s="24"/>
-      <c r="M286" s="24"/>
-      <c r="N286" s="24"/>
-      <c r="O286" s="24"/>
-      <c r="P286" s="29"/>
+      <c r="B286" s="7"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H286" s="5"/>
+      <c r="J286" s="5"/>
+      <c r="K286" s="5"/>
+      <c r="L286" s="5"/>
+      <c r="M286" s="5"/>
+      <c r="N286" s="5"/>
+      <c r="O286" s="5"/>
+      <c r="P286" s="7"/>
       <c r="Q286" s="5"/>
       <c r="R286" s="5"/>
       <c r="S286" s="5"/>
@@ -12518,25 +12066,24 @@
       <c r="A287" s="3">
         <v>286</v>
       </c>
-      <c r="B287" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C287" s="21"/>
-      <c r="D287" s="13"/>
-      <c r="E287" s="13"/>
-      <c r="F287" s="13"/>
-      <c r="G287" s="13"/>
-      <c r="H287" s="13"/>
-      <c r="I287" s="26"/>
-      <c r="J287" s="13"/>
-      <c r="K287" s="13"/>
-      <c r="L287" s="13"/>
-      <c r="M287" s="13"/>
-      <c r="N287" s="13"/>
-      <c r="O287" s="13"/>
-      <c r="P287" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="B287" s="7"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G287" s="27"/>
+      <c r="H287" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J287" s="5"/>
+      <c r="K287" s="5"/>
+      <c r="L287" s="5"/>
+      <c r="M287" s="5"/>
+      <c r="N287" s="5"/>
+      <c r="O287" s="5"/>
+      <c r="P287" s="7"/>
       <c r="Q287" s="5"/>
       <c r="R287" s="5"/>
       <c r="S287" s="5"/>
@@ -12565,9 +12112,6 @@
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
-      <c r="G288" s="5"/>
-      <c r="H288" s="5"/>
-      <c r="I288" s="27"/>
       <c r="J288" s="5"/>
       <c r="K288" s="5"/>
       <c r="L288" s="5"/>
@@ -12601,11 +12145,15 @@
       <c r="B289" s="7"/>
       <c r="C289" s="4"/>
       <c r="D289" s="5"/>
-      <c r="E289" s="5"/>
-      <c r="F289" s="5"/>
-      <c r="G289" s="5"/>
-      <c r="H289" s="5"/>
-      <c r="I289" s="27"/>
+      <c r="E289" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F289" s="13"/>
+      <c r="G289" s="18"/>
+      <c r="H289" s="18"/>
+      <c r="I289" t="s">
+        <v>55</v>
+      </c>
       <c r="J289" s="5"/>
       <c r="K289" s="5"/>
       <c r="L289" s="5"/>
@@ -12643,7 +12191,7 @@
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
       <c r="H290" s="5"/>
-      <c r="I290" s="27"/>
+      <c r="I290" s="5"/>
       <c r="J290" s="5"/>
       <c r="K290" s="5"/>
       <c r="L290" s="5"/>
@@ -12681,7 +12229,7 @@
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
       <c r="H291" s="5"/>
-      <c r="I291" s="27"/>
+      <c r="I291" s="5"/>
       <c r="J291" s="5"/>
       <c r="K291" s="5"/>
       <c r="L291" s="5"/>
@@ -12715,19 +12263,15 @@
       <c r="B292" s="7"/>
       <c r="C292" s="4"/>
       <c r="D292" s="5"/>
-      <c r="E292" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="E292" s="5"/>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
       <c r="H292" s="5"/>
-      <c r="I292" s="27"/>
+      <c r="I292" s="5"/>
       <c r="J292" s="5"/>
       <c r="K292" s="5"/>
       <c r="L292" s="5"/>
-      <c r="M292" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="M292" s="5"/>
       <c r="N292" s="5"/>
       <c r="O292" s="5"/>
       <c r="P292" s="7"/>
@@ -12756,25 +12300,17 @@
       </c>
       <c r="B293" s="7"/>
       <c r="C293" s="4"/>
-      <c r="D293" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E293" s="40"/>
-      <c r="F293" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="D293" s="8"/>
+      <c r="E293" s="8"/>
+      <c r="F293" s="8"/>
       <c r="G293" s="5"/>
       <c r="H293" s="5"/>
-      <c r="I293" s="27"/>
+      <c r="I293" s="5"/>
       <c r="J293" s="5"/>
       <c r="K293" s="5"/>
-      <c r="L293" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M293" s="40"/>
-      <c r="N293" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="L293" s="8"/>
+      <c r="M293" s="8"/>
+      <c r="N293" s="8"/>
       <c r="O293" s="5"/>
       <c r="P293" s="7"/>
       <c r="Q293" s="5"/>
@@ -12800,23 +12336,21 @@
       <c r="A294" s="3">
         <v>293</v>
       </c>
-      <c r="B294" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C294" s="23"/>
-      <c r="D294" s="24"/>
-      <c r="E294" s="24"/>
-      <c r="F294" s="24"/>
-      <c r="G294" s="24"/>
-      <c r="H294" s="24"/>
-      <c r="I294" s="24"/>
-      <c r="J294" s="24"/>
-      <c r="K294" s="28"/>
-      <c r="L294" s="24"/>
-      <c r="M294" s="24"/>
-      <c r="N294" s="24"/>
-      <c r="O294" s="24"/>
-      <c r="P294" s="29"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+      <c r="K294" s="10"/>
+      <c r="L294" s="5"/>
+      <c r="M294" s="5"/>
+      <c r="N294" s="5"/>
+      <c r="O294" s="5"/>
+      <c r="P294" s="7"/>
       <c r="Q294" s="5"/>
       <c r="R294" s="5"/>
       <c r="S294" s="5"/>
@@ -12840,25 +12374,21 @@
       <c r="A295" s="3">
         <v>294</v>
       </c>
-      <c r="B295" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C295" s="21"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="13"/>
-      <c r="F295" s="13"/>
-      <c r="G295" s="13"/>
-      <c r="H295" s="13"/>
-      <c r="I295" s="26"/>
-      <c r="J295" s="13"/>
-      <c r="K295" s="13"/>
-      <c r="L295" s="13"/>
-      <c r="M295" s="13"/>
-      <c r="N295" s="13"/>
-      <c r="O295" s="13"/>
-      <c r="P295" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="B295" s="7"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+      <c r="K295" s="5"/>
+      <c r="L295" s="5"/>
+      <c r="M295" s="5"/>
+      <c r="N295" s="5"/>
+      <c r="O295" s="5"/>
+      <c r="P295" s="7"/>
       <c r="Q295" s="5"/>
       <c r="R295" s="5"/>
       <c r="S295" s="5"/>
@@ -12889,7 +12419,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
       <c r="H296" s="5"/>
-      <c r="I296" s="27"/>
+      <c r="I296" s="5"/>
       <c r="J296" s="5"/>
       <c r="K296" s="10"/>
       <c r="L296" s="5"/>
@@ -12927,7 +12457,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
       <c r="H297" s="5"/>
-      <c r="I297" s="27"/>
+      <c r="I297" s="5"/>
       <c r="J297" s="5"/>
       <c r="K297" s="5"/>
       <c r="L297" s="5"/>
@@ -12965,9 +12495,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
       <c r="H298" s="5"/>
-      <c r="I298" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="I298" s="5"/>
       <c r="J298" s="5"/>
       <c r="K298" s="5"/>
       <c r="L298" s="5"/>
@@ -13082,7 +12610,7 @@
       <c r="G301" s="5"/>
       <c r="H301" s="5"/>
       <c r="I301" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J301" s="5"/>
       <c r="K301" s="5"/>
@@ -13204,7 +12732,7 @@
       </c>
       <c r="B305" s="14"/>
       <c r="I305" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="P305" s="14"/>
       <c r="Q305" s="5"/>
@@ -13257,7 +12785,7 @@
       </c>
       <c r="B307" s="14"/>
       <c r="I307" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="P307" s="14"/>
       <c r="Q307" s="5"/>
@@ -13310,7 +12838,7 @@
       </c>
       <c r="B309" s="14"/>
       <c r="I309" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="P309" s="14"/>
       <c r="Q309" s="5"/>
@@ -13377,27 +12905,27 @@
       <c r="B311" s="7"/>
       <c r="C311" s="4"/>
       <c r="D311" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E311" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="E311" s="27"/>
       <c r="F311" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G311" s="5"/>
       <c r="H311" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I311" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="I311" s="27"/>
       <c r="J311" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="K311" s="5"/>
       <c r="L311" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M311" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="M311" s="27"/>
       <c r="N311" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="O311" s="5"/>
       <c r="P311" s="7"/>
@@ -13424,23 +12952,21 @@
       <c r="A312" s="12">
         <v>311</v>
       </c>
-      <c r="B312" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C312" s="23"/>
-      <c r="D312" s="24"/>
-      <c r="E312" s="24"/>
-      <c r="F312" s="24"/>
-      <c r="G312" s="24"/>
-      <c r="H312" s="24"/>
-      <c r="I312" s="24"/>
-      <c r="J312" s="24"/>
-      <c r="K312" s="24"/>
-      <c r="L312" s="24"/>
-      <c r="M312" s="24"/>
-      <c r="N312" s="24"/>
-      <c r="O312" s="24"/>
-      <c r="P312" s="29"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="5"/>
+      <c r="J312" s="5"/>
+      <c r="K312" s="5"/>
+      <c r="L312" s="5"/>
+      <c r="M312" s="5"/>
+      <c r="N312" s="5"/>
+      <c r="O312" s="5"/>
+      <c r="P312" s="7"/>
       <c r="Q312" s="5"/>
       <c r="R312" s="5"/>
       <c r="S312" s="5"/>
@@ -13465,22 +12991,24 @@
         <v>312</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C313" s="23"/>
-      <c r="D313" s="24"/>
-      <c r="E313" s="24"/>
-      <c r="F313" s="24"/>
-      <c r="G313" s="24"/>
-      <c r="H313" s="24"/>
-      <c r="I313" s="24"/>
-      <c r="J313" s="24"/>
-      <c r="K313" s="24"/>
-      <c r="L313" s="24"/>
-      <c r="M313" s="24"/>
-      <c r="N313" s="24"/>
-      <c r="O313" s="24"/>
-      <c r="P313" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="C313" s="20"/>
+      <c r="D313" s="13"/>
+      <c r="E313" s="13"/>
+      <c r="F313" s="13"/>
+      <c r="G313" s="13"/>
+      <c r="H313" s="13"/>
+      <c r="I313" s="13"/>
+      <c r="J313" s="13"/>
+      <c r="K313" s="13"/>
+      <c r="L313" s="13"/>
+      <c r="M313" s="13"/>
+      <c r="N313" s="13"/>
+      <c r="O313" s="13"/>
+      <c r="P313" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="Q313" s="5"/>
       <c r="R313" s="5"/>
       <c r="S313" s="5"/>
@@ -13853,7 +13381,7 @@
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
       <c r="H323" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I323" s="5"/>
       <c r="J323" s="5"/>
@@ -13969,11 +13497,11 @@
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
       <c r="H326" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I326" s="13"/>
       <c r="J326" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K326" s="5"/>
       <c r="L326" s="5"/>
@@ -14009,7 +13537,7 @@
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
       <c r="F327" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G327" s="5"/>
       <c r="H327" s="5"/>
@@ -14096,7 +13624,9 @@
       <c r="M329" s="5"/>
       <c r="N329" s="5"/>
       <c r="O329" s="5"/>
-      <c r="P329" s="7"/>
+      <c r="P329" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="Q329" s="5"/>
       <c r="R329" s="5"/>
       <c r="S329" s="5"/>
@@ -14354,7 +13884,7 @@
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
       <c r="G336" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
@@ -14583,15 +14113,15 @@
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
       <c r="F342" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G342" s="13"/>
       <c r="H342" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I342" s="5"/>
       <c r="J342" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K342" s="5"/>
       <c r="L342" s="5"/>
@@ -14633,7 +14163,7 @@
       <c r="J343" s="5"/>
       <c r="K343" s="5"/>
       <c r="L343" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M343" s="5"/>
       <c r="N343" s="5"/>
@@ -14901,13 +14431,13 @@
       <c r="J350" s="5"/>
       <c r="K350" s="5"/>
       <c r="L350" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M350" s="13"/>
       <c r="N350" s="13"/>
       <c r="O350" s="13"/>
       <c r="P350" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q350" s="5"/>
       <c r="R350" s="5"/>
@@ -15054,7 +14584,7 @@
       <c r="G354" s="5"/>
       <c r="H354" s="5"/>
       <c r="I354" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J354" s="5"/>
       <c r="K354" s="5"/>
@@ -15469,17 +14999,15 @@
       <c r="B365" s="7"/>
       <c r="C365" s="4"/>
       <c r="D365" s="5"/>
-      <c r="E365" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E365" s="5"/>
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
       <c r="H365" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I365" s="13"/>
       <c r="J365" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K365" s="5"/>
       <c r="L365" s="5"/>
@@ -15517,9 +15045,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
       <c r="H366" s="5"/>
-      <c r="I366" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="I366" s="5"/>
       <c r="J366" s="5"/>
       <c r="K366" s="5"/>
       <c r="L366" s="5"/>
@@ -15630,19 +15156,23 @@
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
-      <c r="H369" s="5"/>
-      <c r="I369" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J369" s="13" t="s">
-        <v>75</v>
+      <c r="H369" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I369" s="13"/>
+      <c r="J369" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="K369" s="5"/>
-      <c r="L369" s="5"/>
+      <c r="L369" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="M369" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N369" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="N369" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="O369" s="5"/>
       <c r="P369" s="7"/>
       <c r="Q369" s="5"/>
@@ -15674,12 +15204,12 @@
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
-      <c r="H370" s="5"/>
-      <c r="I370" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J370" s="13" t="s">
-        <v>75</v>
+      <c r="H370" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I370" s="13"/>
+      <c r="J370" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="K370" s="5"/>
       <c r="L370" s="5"/>
@@ -15716,12 +15246,12 @@
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
-      <c r="H371" s="5"/>
-      <c r="I371" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J371" s="13" t="s">
-        <v>75</v>
+      <c r="H371" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I371" s="13"/>
+      <c r="J371" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="K371" s="5"/>
       <c r="L371" s="5"/>
@@ -15755,17 +15285,16 @@
       <c r="B372" s="7"/>
       <c r="C372" s="4"/>
       <c r="D372" s="5"/>
-      <c r="E372" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F372" s="5"/>
+      <c r="F372" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G372" s="5"/>
-      <c r="H372" s="5"/>
-      <c r="I372" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J372" s="13" t="s">
-        <v>75</v>
+      <c r="H372" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I372" s="13"/>
+      <c r="J372" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="K372" s="5"/>
       <c r="L372" s="5"/>
@@ -15802,12 +15331,12 @@
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
-      <c r="H373" s="5"/>
-      <c r="I373" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J373" s="13" t="s">
-        <v>75</v>
+      <c r="H373" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I373" s="13"/>
+      <c r="J373" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="K373" s="5"/>
       <c r="L373" s="5"/>
@@ -15844,12 +15373,12 @@
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
-      <c r="H374" s="5"/>
-      <c r="I374" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J374" s="13" t="s">
-        <v>75</v>
+      <c r="H374" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I374" s="13"/>
+      <c r="J374" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="K374" s="5"/>
       <c r="L374" s="5"/>
@@ -15886,26 +15415,22 @@
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
-      <c r="H375" s="5"/>
-      <c r="I375" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J375" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K375" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L375" s="37"/>
-      <c r="M375" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="H375" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I375" s="13"/>
+      <c r="J375" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K375" s="5"/>
+      <c r="L375" s="5"/>
+      <c r="M375" s="5"/>
       <c r="N375" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O375" s="13"/>
       <c r="P375" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q375" s="5"/>
       <c r="R375" s="5"/>
@@ -15936,22 +15461,21 @@
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
-      <c r="H376" s="5"/>
-      <c r="I376" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J376" s="13" t="s">
-        <v>75</v>
+      <c r="H376" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I376" s="13"/>
+      <c r="J376" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="K376" s="5"/>
       <c r="L376" s="5"/>
-      <c r="M376" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N376" s="13"/>
+      <c r="N376" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O376" s="13"/>
       <c r="P376" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q376" s="5"/>
       <c r="R376" s="5"/>
@@ -15982,22 +15506,20 @@
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
-      <c r="H377" s="5"/>
-      <c r="I377" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J377" s="13" t="s">
-        <v>75</v>
+      <c r="H377" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I377" s="13"/>
+      <c r="J377" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="K377" s="5"/>
-      <c r="L377" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M377" s="13"/>
-      <c r="N377" s="13"/>
+      <c r="N377" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O377" s="13"/>
       <c r="P377" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q377" s="5"/>
       <c r="R377" s="5"/>
@@ -16028,22 +15550,12 @@
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
-      <c r="H378" s="5"/>
-      <c r="I378" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J378" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K378" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L378" s="13"/>
-      <c r="M378" s="13"/>
-      <c r="N378" s="13"/>
+      <c r="N378" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O378" s="13"/>
       <c r="P378" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q378" s="5"/>
       <c r="R378" s="5"/>
@@ -16075,21 +15587,14 @@
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
       <c r="H379" s="5"/>
-      <c r="I379" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J379" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K379" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L379" s="13"/>
-      <c r="M379" s="13"/>
-      <c r="N379" s="13"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5"/>
+      <c r="N379" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O379" s="13"/>
       <c r="P379" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q379" s="5"/>
       <c r="R379" s="5"/>
@@ -16121,21 +15626,15 @@
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
       <c r="H380" s="5"/>
-      <c r="I380" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J380" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K380" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L380" s="13"/>
-      <c r="M380" s="13"/>
-      <c r="N380" s="13"/>
+      <c r="I380" s="5"/>
+      <c r="J380" s="5"/>
+      <c r="M380" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N380" s="18"/>
       <c r="O380" s="13"/>
       <c r="P380" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q380" s="5"/>
       <c r="R380" s="5"/>
@@ -16166,22 +15665,17 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
       <c r="G381" s="8"/>
-      <c r="H381" s="8"/>
-      <c r="I381" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J381" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K381" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L381" s="13"/>
-      <c r="M381" s="13"/>
-      <c r="N381" s="13"/>
+      <c r="H381" s="5"/>
+      <c r="I381" s="5"/>
+      <c r="J381" s="5"/>
+      <c r="L381" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M381" s="18"/>
+      <c r="N381" s="18"/>
       <c r="O381" s="13"/>
       <c r="P381" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q381" s="5"/>
       <c r="R381" s="5"/>
@@ -16209,25 +15703,23 @@
       <c r="B382" s="7"/>
       <c r="C382" s="4"/>
       <c r="D382" s="8"/>
-      <c r="E382" s="8"/>
+      <c r="E382" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F382" s="8"/>
       <c r="G382" s="8"/>
-      <c r="H382" s="8"/>
-      <c r="I382" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J382" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="H382" s="5"/>
+      <c r="I382" s="5"/>
+      <c r="J382" s="5"/>
       <c r="K382" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L382" s="13"/>
-      <c r="M382" s="13"/>
-      <c r="N382" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="L382" s="18"/>
+      <c r="M382" s="18"/>
+      <c r="N382" s="18"/>
       <c r="O382" s="13"/>
       <c r="P382" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q382" s="5"/>
       <c r="R382" s="5"/>
@@ -16258,22 +15750,17 @@
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
       <c r="G383" s="5"/>
-      <c r="H383" s="5"/>
-      <c r="I383" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J383" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K383" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L383" s="13"/>
-      <c r="M383" s="13"/>
+      <c r="I383" s="5"/>
+      <c r="J383" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K383" s="18"/>
+      <c r="L383" s="18"/>
+      <c r="M383" s="18"/>
       <c r="N383" s="13"/>
       <c r="O383" s="13"/>
       <c r="P383" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q383" s="5"/>
       <c r="R383" s="5"/>
@@ -16304,22 +15791,17 @@
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
       <c r="G384" s="5"/>
-      <c r="H384" s="5"/>
-      <c r="I384" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J384" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K384" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L384" s="13"/>
-      <c r="M384" s="13"/>
+      <c r="I384" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J384" s="13"/>
+      <c r="K384" s="18"/>
+      <c r="L384" s="18"/>
+      <c r="M384" s="18"/>
       <c r="N384" s="13"/>
       <c r="O384" s="13"/>
       <c r="P384" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q384" s="5"/>
       <c r="R384" s="5"/>
@@ -16349,25 +15831,19 @@
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
-      <c r="G385" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H385" s="5"/>
-      <c r="I385" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J385" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K385" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L385" s="13"/>
-      <c r="M385" s="13"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I385" s="13"/>
+      <c r="J385" s="13"/>
+      <c r="K385" s="18"/>
+      <c r="L385" s="18"/>
+      <c r="M385" s="18"/>
       <c r="N385" s="13"/>
       <c r="O385" s="13"/>
       <c r="P385" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q385" s="5"/>
       <c r="R385" s="5"/>
@@ -16396,26 +15872,19 @@
       <c r="C386" s="4"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
-      <c r="F386" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="G386" s="5"/>
-      <c r="H386" s="5"/>
-      <c r="I386" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J386" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K386" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L386" s="13"/>
-      <c r="M386" s="13"/>
+      <c r="H386" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I386" s="13"/>
+      <c r="J386" s="13"/>
+      <c r="K386" s="18"/>
+      <c r="L386" s="18"/>
+      <c r="M386" s="18"/>
       <c r="N386" s="13"/>
       <c r="O386" s="13"/>
       <c r="P386" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q386" s="5"/>
       <c r="R386" s="5"/>
@@ -16446,22 +15915,18 @@
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
       <c r="G387" s="5"/>
-      <c r="H387" s="5"/>
-      <c r="I387" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J387" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K387" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L387" s="13"/>
-      <c r="M387" s="13"/>
+      <c r="H387" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I387" s="13"/>
+      <c r="J387" s="13"/>
+      <c r="K387" s="18"/>
+      <c r="L387" s="18"/>
+      <c r="M387" s="18"/>
       <c r="N387" s="13"/>
       <c r="O387" s="13"/>
       <c r="P387" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q387" s="5"/>
       <c r="R387" s="5"/>
@@ -16489,29 +15954,25 @@
       <c r="B388" s="7"/>
       <c r="C388" s="4"/>
       <c r="D388" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E388" s="37"/>
+        <v>46</v>
+      </c>
+      <c r="E388" s="27"/>
       <c r="F388" s="5" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G388" s="5"/>
-      <c r="H388" s="5"/>
-      <c r="I388" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J388" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K388" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L388" s="13"/>
-      <c r="M388" s="13"/>
+      <c r="H388" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I388" s="13"/>
+      <c r="J388" s="13"/>
+      <c r="K388" s="18"/>
+      <c r="L388" s="18"/>
+      <c r="M388" s="18"/>
       <c r="N388" s="13"/>
       <c r="O388" s="13"/>
       <c r="P388" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q388" s="5"/>
       <c r="R388" s="5"/>
@@ -16542,22 +16003,18 @@
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
       <c r="G389" s="5"/>
-      <c r="H389" s="5"/>
-      <c r="I389" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J389" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K389" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L389" s="13"/>
-      <c r="M389" s="13"/>
+      <c r="H389" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I389" s="13"/>
+      <c r="J389" s="13"/>
+      <c r="K389" s="18"/>
+      <c r="L389" s="18"/>
+      <c r="M389" s="18"/>
       <c r="N389" s="13"/>
       <c r="O389" s="13"/>
       <c r="P389" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q389" s="5"/>
       <c r="R389" s="5"/>
@@ -16583,9 +16040,9 @@
         <v>389</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C390" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="C390" s="20"/>
       <c r="D390" s="13"/>
       <c r="E390" s="13"/>
       <c r="F390" s="13"/>
@@ -16599,7 +16056,7 @@
       <c r="N390" s="13"/>
       <c r="O390" s="13"/>
       <c r="P390" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="Q390" s="5"/>
       <c r="R390" s="5"/>
@@ -16779,9 +16236,6 @@
       <c r="B395" s="7"/>
       <c r="C395" s="4"/>
       <c r="D395" s="5"/>
-      <c r="E395" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="F395" s="5"/>
       <c r="G395" s="5"/>
       <c r="H395" s="5"/>
@@ -16895,17 +16349,15 @@
       <c r="B398" s="7"/>
       <c r="C398" s="4"/>
       <c r="D398" s="5"/>
-      <c r="E398" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="G398" s="5"/>
       <c r="H398" s="5"/>
       <c r="I398" s="5"/>
       <c r="J398" s="5"/>
-      <c r="K398" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="K398" s="5"/>
       <c r="L398" s="5"/>
       <c r="M398" s="5"/>
       <c r="N398" s="5"/>
@@ -16972,25 +16424,21 @@
       <c r="A400" s="12">
         <v>399</v>
       </c>
-      <c r="B400" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C400" s="21"/>
-      <c r="D400" s="13"/>
-      <c r="E400" s="13"/>
-      <c r="F400" s="13"/>
-      <c r="G400" s="13"/>
-      <c r="H400" s="13"/>
-      <c r="I400" s="13"/>
-      <c r="J400" s="13"/>
-      <c r="K400" s="13"/>
-      <c r="L400" s="13"/>
-      <c r="M400" s="13"/>
-      <c r="N400" s="13"/>
-      <c r="O400" s="13"/>
-      <c r="P400" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="B400" s="7"/>
+      <c r="C400" s="4"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="5"/>
+      <c r="J400" s="5"/>
+      <c r="K400" s="5"/>
+      <c r="L400" s="5"/>
+      <c r="M400" s="5"/>
+      <c r="N400" s="5"/>
+      <c r="O400" s="5"/>
+      <c r="P400" s="7"/>
       <c r="Q400" s="5"/>
       <c r="R400" s="5"/>
       <c r="S400" s="5"/>
@@ -17206,29 +16654,21 @@
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="4"/>
-      <c r="D406" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E406" s="37"/>
-      <c r="F406" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G406" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H406" s="37"/>
-      <c r="I406" s="37"/>
-      <c r="J406" s="37"/>
-      <c r="K406" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L406" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M406" s="37"/>
-      <c r="N406" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I406" s="27"/>
+      <c r="J406" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K406" s="5"/>
+      <c r="L406" s="5"/>
+      <c r="M406" s="5"/>
+      <c r="N406" s="5"/>
       <c r="O406" s="6"/>
       <c r="P406" s="7"/>
       <c r="Q406" s="5"/>
@@ -17254,23 +16694,21 @@
       <c r="A407" s="12">
         <v>406</v>
       </c>
-      <c r="B407" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C407" s="23"/>
-      <c r="D407" s="24"/>
-      <c r="E407" s="24"/>
-      <c r="F407" s="24"/>
-      <c r="G407" s="24"/>
-      <c r="H407" s="24"/>
-      <c r="I407" s="24"/>
-      <c r="J407" s="24"/>
-      <c r="K407" s="24"/>
-      <c r="L407" s="24"/>
-      <c r="M407" s="24"/>
-      <c r="N407" s="24"/>
-      <c r="O407" s="25"/>
-      <c r="P407" s="29"/>
+      <c r="B407" s="7"/>
+      <c r="C407" s="4"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
+      <c r="I407" s="5"/>
+      <c r="J407" s="5"/>
+      <c r="K407" s="5"/>
+      <c r="L407" s="5"/>
+      <c r="M407" s="5"/>
+      <c r="N407" s="5"/>
+      <c r="O407" s="6"/>
+      <c r="P407" s="7"/>
       <c r="Q407" s="5"/>
       <c r="R407" s="5"/>
       <c r="S407" s="5"/>
@@ -17295,22 +16733,24 @@
         <v>407</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C408" s="23"/>
-      <c r="D408" s="24"/>
-      <c r="E408" s="24"/>
-      <c r="F408" s="24"/>
-      <c r="G408" s="24"/>
-      <c r="H408" s="24"/>
-      <c r="I408" s="24"/>
-      <c r="J408" s="24"/>
-      <c r="K408" s="24"/>
-      <c r="L408" s="24"/>
-      <c r="M408" s="24"/>
-      <c r="N408" s="24"/>
-      <c r="O408" s="25"/>
-      <c r="P408" s="29"/>
+        <v>15</v>
+      </c>
+      <c r="C408" s="20"/>
+      <c r="D408" s="13"/>
+      <c r="E408" s="13"/>
+      <c r="F408" s="13"/>
+      <c r="G408" s="13"/>
+      <c r="H408" s="13"/>
+      <c r="I408" s="13"/>
+      <c r="J408" s="13"/>
+      <c r="K408" s="13"/>
+      <c r="L408" s="13"/>
+      <c r="M408" s="13"/>
+      <c r="N408" s="13"/>
+      <c r="O408" s="13"/>
+      <c r="P408" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Q408" s="5"/>
       <c r="R408" s="5"/>
       <c r="S408" s="5"/>
@@ -17535,7 +16975,7 @@
       <c r="J414" s="5"/>
       <c r="K414" s="5"/>
       <c r="L414" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M414" s="5"/>
       <c r="N414" s="5"/>
@@ -17574,9 +17014,7 @@
       <c r="I415" s="5"/>
       <c r="J415" s="5"/>
       <c r="K415" s="5"/>
-      <c r="L415" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="L415" s="5"/>
       <c r="M415" s="5"/>
       <c r="N415" s="5"/>
       <c r="O415" s="6"/>
@@ -17650,14 +17088,12 @@
       <c r="G417" s="8"/>
       <c r="H417" s="8"/>
       <c r="I417" s="8"/>
-      <c r="J417" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K417" s="13"/>
+      <c r="K417" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="L417" s="13"/>
-      <c r="M417" s="13"/>
-      <c r="N417" s="5" t="s">
-        <v>37</v>
+      <c r="M417" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="O417" s="6"/>
       <c r="P417" s="7"/>
@@ -17801,7 +17237,9 @@
       <c r="B421" s="14"/>
       <c r="C421" s="4"/>
       <c r="I421" s="5"/>
-      <c r="J421" s="5"/>
+      <c r="J421" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="K421" s="5"/>
       <c r="L421" s="5"/>
       <c r="M421" s="5"/>
@@ -17899,9 +17337,13 @@
       </c>
       <c r="B424" s="14"/>
       <c r="C424" s="4"/>
-      <c r="I424" s="5"/>
-      <c r="J424" s="5"/>
-      <c r="K424" s="5"/>
+      <c r="I424" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J424" s="13"/>
+      <c r="K424" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L424" s="5"/>
       <c r="M424" s="5"/>
       <c r="N424" s="5"/>
@@ -18038,13 +17480,17 @@
       <c r="C428" s="4"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
-      <c r="F428" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="F428" s="5"/>
       <c r="G428" s="5"/>
-      <c r="H428" s="5"/>
+      <c r="H428" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I428" s="5"/>
       <c r="J428" s="5"/>
+      <c r="K428" s="8"/>
+      <c r="L428" s="8"/>
+      <c r="M428" s="8"/>
+      <c r="N428" s="8"/>
       <c r="P428" s="7"/>
       <c r="Q428" s="5"/>
       <c r="R428" s="5"/>
@@ -18073,13 +17519,15 @@
       <c r="C429" s="4"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
-      <c r="F429" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="F429" s="5"/>
       <c r="G429" s="5"/>
       <c r="H429" s="5"/>
       <c r="I429" s="5"/>
       <c r="J429" s="5"/>
+      <c r="K429" s="8"/>
+      <c r="L429" s="8"/>
+      <c r="M429" s="8"/>
+      <c r="N429" s="8"/>
       <c r="P429" s="7"/>
       <c r="Q429" s="5"/>
       <c r="R429" s="5"/>
@@ -18113,6 +17561,10 @@
       <c r="H430" s="5"/>
       <c r="I430" s="5"/>
       <c r="J430" s="5"/>
+      <c r="K430" s="8"/>
+      <c r="L430" s="8"/>
+      <c r="M430" s="8"/>
+      <c r="N430" s="8"/>
       <c r="P430" s="7"/>
       <c r="Q430" s="5"/>
       <c r="R430" s="5"/>
@@ -18139,16 +17591,16 @@
       </c>
       <c r="B431" s="14"/>
       <c r="C431" s="4"/>
-      <c r="D431" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E431" s="13"/>
-      <c r="F431" s="13"/>
-      <c r="G431" s="13"/>
-      <c r="H431" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I431" s="5"/>
+      <c r="D431" s="5"/>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
+      <c r="G431" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H431" s="13"/>
+      <c r="I431" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="J431" s="5"/>
       <c r="K431" s="5"/>
       <c r="L431" s="5"/>
@@ -18297,7 +17749,9 @@
       <c r="C435" s="4"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
-      <c r="F435" s="5"/>
+      <c r="F435" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G435" s="5"/>
       <c r="H435" s="5"/>
       <c r="I435" s="5"/>
@@ -18410,18 +17864,20 @@
       <c r="B438" s="14"/>
       <c r="C438" s="4"/>
       <c r="D438" s="5"/>
-      <c r="E438" s="5"/>
-      <c r="F438" s="5"/>
-      <c r="G438" s="5"/>
+      <c r="E438" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F438" s="13"/>
+      <c r="G438" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H438" s="5"/>
       <c r="I438" s="5"/>
       <c r="J438" s="5"/>
       <c r="K438" s="5"/>
-      <c r="L438" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="L438" s="5"/>
       <c r="M438" s="5"/>
-      <c r="N438" s="41"/>
+      <c r="N438" s="5"/>
       <c r="O438" s="15"/>
       <c r="P438" s="7"/>
       <c r="Q438" s="5"/>
@@ -18457,11 +17913,9 @@
       <c r="I439" s="5"/>
       <c r="J439" s="5"/>
       <c r="K439" s="5"/>
-      <c r="L439" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="L439" s="5"/>
       <c r="M439" s="5"/>
-      <c r="N439" s="41"/>
+      <c r="N439" s="5"/>
       <c r="O439" s="15"/>
       <c r="P439" s="7"/>
       <c r="Q439" s="5"/>
@@ -18499,7 +17953,7 @@
       <c r="K440" s="5"/>
       <c r="L440" s="5"/>
       <c r="M440" s="5"/>
-      <c r="N440" s="41"/>
+      <c r="N440" s="5"/>
       <c r="O440" s="15"/>
       <c r="P440" s="7"/>
       <c r="Q440" s="5"/>
@@ -18533,14 +17987,11 @@
       <c r="G441" s="5"/>
       <c r="H441" s="5"/>
       <c r="I441" s="5"/>
-      <c r="J441" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K441" s="13"/>
-      <c r="L441" s="13"/>
-      <c r="M441" s="41" t="s">
-        <v>37</v>
-      </c>
+      <c r="J441" s="5"/>
+      <c r="K441" s="5"/>
+      <c r="L441" s="5"/>
+      <c r="M441" s="5"/>
+      <c r="N441" s="8"/>
       <c r="O441" s="15"/>
       <c r="P441" s="7"/>
       <c r="Q441" s="5"/>
@@ -18765,13 +18216,13 @@
       <c r="I447" s="5"/>
       <c r="J447" s="5"/>
       <c r="L447" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M447" s="13"/>
       <c r="N447" s="13"/>
-      <c r="O447" s="22"/>
+      <c r="O447" s="21"/>
       <c r="P447" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="Q447" s="5"/>
       <c r="R447" s="5"/>
@@ -18952,12 +18403,12 @@
       <c r="C452" s="4"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
-      <c r="F452" s="5"/>
-      <c r="G452" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="H452" s="37" t="s">
-        <v>55</v>
+      <c r="F452" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G452" s="27"/>
+      <c r="H452" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="I452" s="5"/>
       <c r="J452" s="5"/>
@@ -19030,7 +18481,7 @@
       </c>
       <c r="B454" s="14"/>
       <c r="C454" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D454" s="13"/>
       <c r="E454" s="13"/>
@@ -19040,7 +18491,7 @@
       <c r="I454" s="13"/>
       <c r="J454" s="13"/>
       <c r="K454" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L454" s="5"/>
       <c r="M454" s="5"/>
@@ -19081,9 +18532,6 @@
       <c r="J455" s="5"/>
       <c r="K455" s="5"/>
       <c r="L455" s="5"/>
-      <c r="M455" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="N455" s="5"/>
       <c r="O455" s="15"/>
       <c r="P455" s="7"/>
@@ -19158,7 +18606,9 @@
       <c r="I457" s="5"/>
       <c r="J457" s="5"/>
       <c r="K457" s="5"/>
-      <c r="L457" s="5"/>
+      <c r="L457" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="M457" s="5"/>
       <c r="N457" s="5"/>
       <c r="O457" s="15"/>
@@ -19347,9 +18797,6 @@
       <c r="H462" s="5"/>
       <c r="I462" s="5"/>
       <c r="J462" s="5"/>
-      <c r="K462" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="L462" s="5"/>
       <c r="M462" s="5"/>
       <c r="N462" s="5"/>
@@ -19461,7 +18908,9 @@
       <c r="F465" s="5"/>
       <c r="G465" s="5"/>
       <c r="H465" s="5"/>
-      <c r="I465" s="5"/>
+      <c r="I465" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J465" s="5"/>
       <c r="K465" s="5"/>
       <c r="L465" s="5"/>
@@ -19493,24 +18942,22 @@
         <v>465</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C466" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C466" s="20"/>
       <c r="D466" s="13"/>
       <c r="E466" s="13"/>
-      <c r="F466" s="13"/>
-      <c r="G466" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K466" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L466" s="13"/>
+      <c r="F466" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L466" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="M466" s="13"/>
       <c r="N466" s="13"/>
-      <c r="O466" s="22"/>
+      <c r="O466" s="21"/>
       <c r="P466" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q466" s="5"/>
       <c r="R466" s="5"/>
@@ -19580,11 +19027,11 @@
       <c r="F468" s="5"/>
       <c r="G468" s="5"/>
       <c r="H468" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I468" s="37"/>
+        <v>46</v>
+      </c>
+      <c r="I468" s="27"/>
       <c r="J468" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K468" s="5"/>
       <c r="L468" s="5"/>
@@ -19659,11 +19106,11 @@
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
       <c r="H470" s="5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I470" s="13"/>
       <c r="J470" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L470" s="5"/>
       <c r="M470" s="5"/>
@@ -19855,7 +19302,6 @@
       <c r="I475" s="5"/>
       <c r="J475" s="5"/>
       <c r="K475" s="5"/>
-      <c r="L475" s="5"/>
       <c r="M475" s="5"/>
       <c r="N475" s="5"/>
       <c r="O475" s="15"/>
@@ -19893,7 +19339,6 @@
       <c r="I476" s="5"/>
       <c r="J476" s="5"/>
       <c r="K476" s="5"/>
-      <c r="L476" s="5"/>
       <c r="M476" s="5"/>
       <c r="N476" s="5"/>
       <c r="O476" s="15"/>
@@ -19931,7 +19376,6 @@
       <c r="I477" s="5"/>
       <c r="J477" s="5"/>
       <c r="K477" s="5"/>
-      <c r="L477" s="5"/>
       <c r="M477" s="5"/>
       <c r="N477" s="5"/>
       <c r="O477" s="15"/>
@@ -19969,7 +19413,9 @@
       <c r="I478" s="5"/>
       <c r="J478" s="5"/>
       <c r="K478" s="5"/>
-      <c r="L478" s="5"/>
+      <c r="L478" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M478" s="5"/>
       <c r="N478" s="5"/>
       <c r="O478" s="15"/>
@@ -20007,7 +19453,7 @@
       <c r="I479" s="5"/>
       <c r="J479" s="5"/>
       <c r="K479" s="5"/>
-      <c r="L479" s="5"/>
+      <c r="L479" s="23"/>
       <c r="M479" s="5"/>
       <c r="N479" s="5"/>
       <c r="O479" s="15"/>
@@ -20045,9 +19491,11 @@
       <c r="I480" s="5"/>
       <c r="J480" s="5"/>
       <c r="K480" s="5"/>
-      <c r="L480" s="5"/>
+      <c r="L480" s="23"/>
       <c r="M480" s="5"/>
-      <c r="N480" s="5"/>
+      <c r="N480" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="O480" s="15"/>
       <c r="P480" s="7"/>
       <c r="Q480" s="5"/>
@@ -20073,7 +19521,7 @@
       <c r="A481" s="17">
         <v>480</v>
       </c>
-      <c r="B481" s="14"/>
+      <c r="B481" s="7"/>
       <c r="C481" s="4"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -20083,10 +19531,12 @@
       <c r="I481" s="5"/>
       <c r="J481" s="5"/>
       <c r="K481" s="5"/>
-      <c r="L481" s="5"/>
+      <c r="L481" s="23"/>
       <c r="M481" s="5"/>
       <c r="N481" s="5"/>
-      <c r="O481" s="15"/>
+      <c r="O481" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="P481" s="7"/>
       <c r="Q481" s="5"/>
       <c r="R481" s="5"/>
@@ -20111,29 +19561,25 @@
       <c r="A482" s="17">
         <v>481</v>
       </c>
-      <c r="B482" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="B482" s="7"/>
       <c r="C482" s="4"/>
-      <c r="D482" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="D482" s="5"/>
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
       <c r="G482" s="5"/>
       <c r="H482" s="5"/>
-      <c r="I482" s="5"/>
-      <c r="J482" s="5"/>
-      <c r="K482" s="5"/>
-      <c r="L482" s="5"/>
+      <c r="I482" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J482" s="27"/>
+      <c r="K482" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L482" s="23"/>
       <c r="M482" s="5"/>
-      <c r="N482" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O482" s="15"/>
-      <c r="P482" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="N482" s="5"/>
+      <c r="O482" s="6"/>
+      <c r="P482" s="7"/>
       <c r="Q482" s="5"/>
       <c r="R482" s="5"/>
       <c r="S482" s="5"/>
@@ -20157,25 +19603,27 @@
       <c r="A483" s="17">
         <v>482</v>
       </c>
-      <c r="B483" s="30"/>
-      <c r="C483" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="B483" s="7"/>
+      <c r="C483" s="4"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
-      <c r="F483" s="5"/>
-      <c r="G483" s="5"/>
-      <c r="H483" s="5"/>
+      <c r="F483" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G483" s="27"/>
+      <c r="H483" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="I483" s="5"/>
       <c r="J483" s="5"/>
       <c r="K483" s="5"/>
-      <c r="L483" s="5"/>
+      <c r="L483" s="23"/>
       <c r="M483" s="5"/>
-      <c r="N483" s="5"/>
-      <c r="O483" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="P483" s="30"/>
+      <c r="N483" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O483" s="6"/>
+      <c r="P483" s="7"/>
       <c r="Q483" s="5"/>
       <c r="R483" s="5"/>
       <c r="S483" s="5"/>
@@ -20199,33 +19647,31 @@
       <c r="A484" s="17">
         <v>483</v>
       </c>
-      <c r="B484" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C484" s="32"/>
-      <c r="D484" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E484" s="5"/>
-      <c r="F484" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="B484" s="7"/>
+      <c r="C484" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D484" s="27"/>
+      <c r="E484" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F484" s="5"/>
       <c r="G484" s="5"/>
       <c r="H484" s="5"/>
-      <c r="I484" s="5"/>
-      <c r="J484" s="5"/>
-      <c r="K484" s="5"/>
-      <c r="L484" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="I484" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J484" s="13"/>
+      <c r="K484" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L484" s="23"/>
       <c r="M484" s="5"/>
-      <c r="N484" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O484" s="31"/>
-      <c r="P484" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="N484" s="5"/>
+      <c r="O484" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P484" s="7"/>
       <c r="Q484" s="5"/>
       <c r="R484" s="5"/>
       <c r="S484" s="5"/>
@@ -20249,27 +19695,24 @@
       <c r="A485" s="17">
         <v>484</v>
       </c>
-      <c r="C485" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D485" s="27"/>
-      <c r="E485" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F485" s="5"/>
-      <c r="G485" s="5"/>
-      <c r="H485" s="5"/>
+      <c r="B485" s="7"/>
+      <c r="C485" s="5"/>
+      <c r="D485" s="5"/>
+      <c r="E485" s="5"/>
+      <c r="F485" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G485" s="13"/>
+      <c r="H485" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="I485" s="5"/>
       <c r="J485" s="5"/>
       <c r="K485" s="5"/>
-      <c r="L485" s="5"/>
-      <c r="M485" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N485" s="27"/>
-      <c r="O485" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="L485" s="23"/>
+      <c r="M485" s="5"/>
+      <c r="N485" s="5"/>
+      <c r="O485" s="5"/>
       <c r="P485" s="7"/>
       <c r="Q485" s="5"/>
       <c r="R485" s="5"/>
@@ -20294,30 +19737,26 @@
       <c r="A486" s="17">
         <v>485</v>
       </c>
-      <c r="B486" s="14"/>
-      <c r="D486" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E486" s="27"/>
-      <c r="F486" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="B486" s="7"/>
+      <c r="C486" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D486" s="13"/>
+      <c r="E486" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F486" s="5"/>
       <c r="G486" s="5"/>
-      <c r="H486" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="H486" s="5"/>
       <c r="I486" s="5"/>
-      <c r="J486" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="J486" s="5"/>
       <c r="K486" s="5"/>
-      <c r="L486" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M486" s="27"/>
+      <c r="L486" s="23"/>
+      <c r="M486" s="5"/>
       <c r="N486" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="O486" s="8"/>
       <c r="P486" s="7"/>
       <c r="Q486" s="5"/>
       <c r="R486" s="5"/>
@@ -20342,26 +19781,22 @@
       <c r="A487" s="17">
         <v>486</v>
       </c>
-      <c r="B487" s="14"/>
+      <c r="B487" s="7"/>
       <c r="C487" s="4"/>
-      <c r="E487" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F487" s="27"/>
-      <c r="G487" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="D487" s="8"/>
+      <c r="E487" s="5"/>
+      <c r="F487" s="5"/>
+      <c r="G487" s="5"/>
       <c r="H487" s="5"/>
       <c r="I487" s="5"/>
       <c r="J487" s="5"/>
-      <c r="K487" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L487" s="27"/>
-      <c r="M487" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O487" s="15"/>
+      <c r="K487" s="5"/>
+      <c r="L487" s="23"/>
+      <c r="M487" s="5"/>
+      <c r="N487" s="8"/>
+      <c r="O487" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="P487" s="7"/>
       <c r="Q487" s="5"/>
       <c r="R487" s="5"/>
@@ -20386,26 +19821,20 @@
       <c r="A488" s="17">
         <v>487</v>
       </c>
-      <c r="B488" s="14"/>
+      <c r="B488" s="7"/>
       <c r="C488" s="4"/>
       <c r="D488" s="5"/>
-      <c r="F488" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G488" s="27"/>
-      <c r="H488" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="E488" s="8"/>
+      <c r="F488" s="5"/>
+      <c r="G488" s="5"/>
+      <c r="H488" s="5"/>
       <c r="I488" s="5"/>
-      <c r="J488" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K488" s="27"/>
-      <c r="L488" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="J488" s="5"/>
+      <c r="K488" s="5"/>
+      <c r="L488" s="23"/>
+      <c r="M488" s="8"/>
       <c r="N488" s="5"/>
-      <c r="O488" s="15"/>
+      <c r="O488" s="6"/>
       <c r="P488" s="7"/>
       <c r="Q488" s="5"/>
       <c r="R488" s="5"/>
@@ -20430,24 +19859,22 @@
       <c r="A489" s="17">
         <v>488</v>
       </c>
-      <c r="B489" s="14"/>
+      <c r="B489" s="7"/>
       <c r="C489" s="4"/>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
-      <c r="G489" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H489" s="27"/>
-      <c r="I489" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J489" s="27"/>
-      <c r="K489" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="F489" s="8"/>
+      <c r="G489" s="5"/>
+      <c r="H489" s="5"/>
+      <c r="I489" s="5"/>
+      <c r="J489" s="5"/>
+      <c r="K489" s="5"/>
+      <c r="L489" s="23"/>
       <c r="M489" s="5"/>
-      <c r="N489" s="5"/>
-      <c r="O489" s="15"/>
+      <c r="N489" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O489" s="6"/>
       <c r="P489" s="7"/>
       <c r="Q489" s="5"/>
       <c r="R489" s="5"/>
@@ -20472,22 +19899,22 @@
       <c r="A490" s="17">
         <v>489</v>
       </c>
-      <c r="B490" s="14"/>
+      <c r="B490" s="7"/>
       <c r="C490" s="4"/>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
-      <c r="H490" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I490" s="27"/>
-      <c r="J490" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L490" s="5"/>
+      <c r="G490" s="8"/>
+      <c r="H490" s="5"/>
+      <c r="I490" s="5"/>
+      <c r="J490" s="5"/>
+      <c r="K490" s="8"/>
+      <c r="L490" s="23"/>
       <c r="M490" s="5"/>
       <c r="N490" s="5"/>
-      <c r="O490" s="15"/>
+      <c r="O490" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="P490" s="7"/>
       <c r="Q490" s="5"/>
       <c r="R490" s="5"/>
@@ -20512,21 +19939,23 @@
       <c r="A491" s="17">
         <v>490</v>
       </c>
-      <c r="B491" s="14"/>
+      <c r="B491" s="7"/>
       <c r="C491" s="4"/>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
       <c r="F491" s="5"/>
       <c r="G491" s="5"/>
-      <c r="I491" s="27"/>
+      <c r="H491" s="8"/>
+      <c r="I491" s="5"/>
+      <c r="J491" s="8"/>
       <c r="K491" s="5"/>
-      <c r="L491" s="5"/>
+      <c r="L491" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="M491" s="5"/>
       <c r="N491" s="5"/>
-      <c r="O491" s="15"/>
-      <c r="P491" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="O491" s="6"/>
+      <c r="P491" s="7"/>
       <c r="Q491" s="5"/>
       <c r="R491" s="5"/>
       <c r="S491" s="5"/>
@@ -20550,28 +19979,20 @@
       <c r="A492" s="17">
         <v>491</v>
       </c>
-      <c r="B492" s="14"/>
+      <c r="B492" s="7"/>
       <c r="C492" s="4"/>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
-      <c r="F492" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F492" s="5"/>
       <c r="G492" s="5"/>
-      <c r="H492" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I492" s="27"/>
-      <c r="J492" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="H492" s="5"/>
+      <c r="I492" s="5"/>
+      <c r="J492" s="5"/>
       <c r="K492" s="5"/>
-      <c r="L492" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="L492" s="5"/>
       <c r="M492" s="5"/>
       <c r="N492" s="5"/>
-      <c r="O492" s="15"/>
+      <c r="O492" s="6"/>
       <c r="P492" s="7"/>
       <c r="Q492" s="5"/>
       <c r="R492" s="5"/>
@@ -20596,28 +20017,20 @@
       <c r="A493" s="17">
         <v>492</v>
       </c>
-      <c r="B493" s="14"/>
+      <c r="B493" s="7"/>
       <c r="C493" s="4"/>
       <c r="D493" s="5"/>
-      <c r="E493" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G493" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H493" s="27"/>
-      <c r="I493" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J493" s="27"/>
-      <c r="K493" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M493" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E493" s="5"/>
+      <c r="F493" s="8"/>
+      <c r="G493" s="5"/>
+      <c r="H493" s="5"/>
+      <c r="I493" s="5"/>
+      <c r="J493" s="5"/>
+      <c r="K493" s="5"/>
+      <c r="L493" s="8"/>
+      <c r="M493" s="5"/>
       <c r="N493" s="5"/>
-      <c r="O493" s="15"/>
+      <c r="O493" s="6"/>
       <c r="P493" s="7"/>
       <c r="Q493" s="5"/>
       <c r="R493" s="5"/>
@@ -20642,29 +20055,20 @@
       <c r="A494" s="17">
         <v>493</v>
       </c>
-      <c r="B494" s="14"/>
+      <c r="B494" s="7"/>
       <c r="C494" s="4"/>
-      <c r="D494" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F494" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G494" s="27"/>
-      <c r="H494" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J494" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K494" s="27"/>
-      <c r="L494" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N494" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O494" s="15"/>
+      <c r="D494" s="5"/>
+      <c r="E494" s="8"/>
+      <c r="F494" s="5"/>
+      <c r="G494" s="5"/>
+      <c r="H494" s="5"/>
+      <c r="I494" s="8"/>
+      <c r="J494" s="5"/>
+      <c r="K494" s="5"/>
+      <c r="L494" s="5"/>
+      <c r="M494" s="8"/>
+      <c r="N494" s="5"/>
+      <c r="O494" s="6"/>
       <c r="P494" s="7"/>
       <c r="Q494" s="5"/>
       <c r="R494" s="5"/>
@@ -20689,28 +20093,20 @@
       <c r="A495" s="17">
         <v>494</v>
       </c>
-      <c r="B495" s="14"/>
-      <c r="C495" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E495" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F495" s="27"/>
-      <c r="G495" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B495" s="7"/>
+      <c r="C495" s="4"/>
+      <c r="D495" s="8"/>
+      <c r="E495" s="5"/>
+      <c r="F495" s="5"/>
+      <c r="G495" s="5"/>
+      <c r="H495" s="8"/>
       <c r="I495" s="5"/>
-      <c r="K495" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L495" s="27"/>
-      <c r="M495" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O495" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="J495" s="8"/>
+      <c r="K495" s="5"/>
+      <c r="L495" s="5"/>
+      <c r="M495" s="5"/>
+      <c r="N495" s="8"/>
+      <c r="O495" s="6"/>
       <c r="P495" s="7"/>
       <c r="Q495" s="5"/>
       <c r="R495" s="5"/>
@@ -20735,24 +20131,20 @@
       <c r="A496" s="17">
         <v>495</v>
       </c>
-      <c r="B496" s="14"/>
-      <c r="D496" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E496" s="27"/>
-      <c r="F496" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B496" s="7"/>
+      <c r="C496" s="8"/>
+      <c r="D496" s="5"/>
+      <c r="E496" s="5"/>
+      <c r="F496" s="5"/>
+      <c r="G496" s="8"/>
       <c r="H496" s="5"/>
       <c r="I496" s="5"/>
       <c r="J496" s="5"/>
-      <c r="L496" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M496" s="27"/>
-      <c r="N496" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="K496" s="8"/>
+      <c r="L496" s="5"/>
+      <c r="M496" s="5"/>
+      <c r="N496" s="5"/>
+      <c r="O496" s="8"/>
       <c r="P496" s="7"/>
       <c r="Q496" s="5"/>
       <c r="R496" s="5"/>
@@ -20777,26 +20169,22 @@
       <c r="A497" s="17">
         <v>496</v>
       </c>
-      <c r="B497" s="14"/>
-      <c r="C497" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D497" s="27"/>
-      <c r="E497" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B497" s="7"/>
+      <c r="C497" s="5"/>
+      <c r="D497" s="5"/>
+      <c r="E497" s="5"/>
+      <c r="F497" s="8"/>
       <c r="G497" s="5"/>
       <c r="H497" s="5"/>
-      <c r="I497" s="5"/>
+      <c r="I497" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J497" s="5"/>
       <c r="K497" s="5"/>
-      <c r="M497" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N497" s="27"/>
-      <c r="O497" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="L497" s="8"/>
+      <c r="M497" s="5"/>
+      <c r="N497" s="5"/>
+      <c r="O497" s="5"/>
       <c r="P497" s="7"/>
       <c r="Q497" s="5"/>
       <c r="R497" s="5"/>
@@ -20821,13 +20209,10 @@
       <c r="A498" s="17">
         <v>497</v>
       </c>
-      <c r="B498" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C498" s="32"/>
-      <c r="D498" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B498" s="5"/>
+      <c r="C498" s="4"/>
+      <c r="D498" s="5"/>
+      <c r="E498" s="8"/>
       <c r="F498" s="5"/>
       <c r="G498" s="5"/>
       <c r="H498" s="5"/>
@@ -20835,13 +20220,10 @@
       <c r="J498" s="5"/>
       <c r="K498" s="5"/>
       <c r="L498" s="5"/>
-      <c r="N498" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O498" s="31"/>
-      <c r="P498" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="M498" s="8"/>
+      <c r="N498" s="5"/>
+      <c r="O498" s="6"/>
+      <c r="P498" s="7"/>
       <c r="Q498" s="5"/>
       <c r="R498" s="5"/>
       <c r="S498" s="5"/>
@@ -20865,23 +20247,25 @@
       <c r="A499" s="17">
         <v>498</v>
       </c>
-      <c r="B499" s="30"/>
-      <c r="C499" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B499" s="7"/>
+      <c r="C499" s="5"/>
+      <c r="D499" s="8"/>
       <c r="E499" s="5"/>
       <c r="F499" s="5"/>
       <c r="G499" s="5"/>
       <c r="H499" s="5"/>
-      <c r="I499" s="5"/>
+      <c r="I499" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J499" s="5"/>
       <c r="K499" s="5"/>
       <c r="L499" s="5"/>
       <c r="M499" s="5"/>
-      <c r="O499" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P499" s="30"/>
+      <c r="N499" s="8"/>
+      <c r="O499" s="5"/>
+      <c r="P499" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="Q499" s="5"/>
       <c r="R499" s="5"/>
       <c r="S499" s="5"/>
@@ -20905,9 +20289,8 @@
       <c r="A500" s="17">
         <v>499</v>
       </c>
-      <c r="B500" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="B500" s="7"/>
+      <c r="C500" s="8"/>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
       <c r="F500" s="5"/>
@@ -20919,9 +20302,8 @@
       <c r="L500" s="5"/>
       <c r="M500" s="5"/>
       <c r="N500" s="5"/>
-      <c r="P500" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="O500" s="8"/>
+      <c r="P500" s="7"/>
       <c r="Q500" s="5"/>
       <c r="R500" s="5"/>
       <c r="S500" s="5"/>
@@ -20991,7 +20373,7 @@
       <c r="G502" s="5"/>
       <c r="H502" s="5"/>
       <c r="I502" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J502" s="5"/>
       <c r="K502" s="5"/>
@@ -21297,7 +20679,7 @@
       <c r="G510" s="5"/>
       <c r="H510" s="5"/>
       <c r="I510" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J510" s="5"/>
       <c r="K510" s="5"/>
@@ -21453,7 +20835,7 @@
       <c r="I514" s="5"/>
       <c r="J514" s="5"/>
       <c r="K514" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L514" s="5"/>
       <c r="M514" s="5"/>
@@ -21609,7 +20991,7 @@
       <c r="K518" s="5"/>
       <c r="L518" s="5"/>
       <c r="M518" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N518" s="5"/>
       <c r="O518" s="15"/>
@@ -21764,9 +21146,7 @@
       <c r="L522" s="5"/>
       <c r="M522" s="5"/>
       <c r="N522" s="5"/>
-      <c r="O522" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="O522" s="5"/>
       <c r="P522" s="7"/>
       <c r="Q522" s="5"/>
       <c r="R522" s="5"/>
@@ -21945,23 +21325,17 @@
       </c>
       <c r="B527" s="14"/>
       <c r="C527" s="4"/>
-      <c r="D527" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E527" s="37"/>
-      <c r="F527" s="37"/>
-      <c r="G527" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H527" s="5"/>
-      <c r="I527" s="5"/>
-      <c r="J527" s="5"/>
+      <c r="H527" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I527" s="27"/>
+      <c r="J527" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="K527" s="5"/>
       <c r="L527" s="5"/>
       <c r="M527" s="5"/>
-      <c r="N527" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="N527" s="5"/>
       <c r="O527" s="15"/>
       <c r="P527" s="7"/>
       <c r="Q527" s="5"/>
@@ -21987,23 +21361,25 @@
       <c r="A528" s="17">
         <v>527</v>
       </c>
-      <c r="B528" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C528" s="23"/>
-      <c r="D528" s="24"/>
-      <c r="E528" s="24"/>
-      <c r="F528" s="24"/>
-      <c r="G528" s="24"/>
-      <c r="H528" s="24"/>
-      <c r="I528" s="24"/>
-      <c r="J528" s="24"/>
-      <c r="K528" s="24"/>
-      <c r="L528" s="24"/>
-      <c r="M528" s="24"/>
-      <c r="N528" s="24"/>
-      <c r="O528" s="25"/>
-      <c r="P528" s="29"/>
+      <c r="B528" s="7"/>
+      <c r="C528" s="4"/>
+      <c r="D528" s="5"/>
+      <c r="E528" s="5"/>
+      <c r="F528" s="5"/>
+      <c r="G528" s="5"/>
+      <c r="H528" s="5"/>
+      <c r="I528" s="5"/>
+      <c r="J528" s="5"/>
+      <c r="K528" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L528" s="13"/>
+      <c r="M528" s="13"/>
+      <c r="N528" s="13"/>
+      <c r="O528" s="21"/>
+      <c r="P528" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q528" s="5"/>
       <c r="R528" s="5"/>
       <c r="S528" s="5"/>
@@ -22027,23 +21403,25 @@
       <c r="A529" s="17">
         <v>528</v>
       </c>
-      <c r="B529" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C529" s="23"/>
-      <c r="D529" s="24"/>
-      <c r="E529" s="24"/>
-      <c r="F529" s="24"/>
-      <c r="G529" s="24"/>
-      <c r="H529" s="24"/>
-      <c r="I529" s="24"/>
-      <c r="J529" s="24"/>
-      <c r="K529" s="24"/>
-      <c r="L529" s="24"/>
-      <c r="M529" s="24"/>
-      <c r="N529" s="24"/>
-      <c r="O529" s="25"/>
-      <c r="P529" s="29"/>
+      <c r="B529" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C529" s="20"/>
+      <c r="D529" s="13"/>
+      <c r="E529" s="13"/>
+      <c r="F529" s="13"/>
+      <c r="G529" s="13"/>
+      <c r="H529" s="13"/>
+      <c r="I529" s="13"/>
+      <c r="J529" s="13"/>
+      <c r="K529" s="13"/>
+      <c r="L529" s="13"/>
+      <c r="M529" s="13"/>
+      <c r="N529" s="13"/>
+      <c r="O529" s="21"/>
+      <c r="P529" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q529" s="5"/>
       <c r="R529" s="5"/>
       <c r="S529" s="5"/>
@@ -22295,12 +21673,8 @@
       <c r="A536" s="17">
         <v>535</v>
       </c>
-      <c r="B536" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C536" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="B536" s="7"/>
+      <c r="C536" s="5"/>
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
       <c r="F536" s="5"/>
@@ -22312,12 +21686,8 @@
       <c r="L536" s="5"/>
       <c r="M536" s="5"/>
       <c r="N536" s="5"/>
-      <c r="O536" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="P536" s="33" t="s">
-        <v>44</v>
-      </c>
+      <c r="O536" s="6"/>
+      <c r="P536" s="7"/>
       <c r="Q536" s="5"/>
       <c r="R536" s="5"/>
       <c r="S536" s="5"/>
@@ -22342,11 +21712,11 @@
         <v>536</v>
       </c>
       <c r="B537" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C537" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C537" s="20"/>
       <c r="D537" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E537" s="5"/>
       <c r="F537" s="5"/>
@@ -22358,11 +21728,11 @@
       <c r="L537" s="5"/>
       <c r="M537" s="5"/>
       <c r="N537" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O537" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="O537" s="21"/>
       <c r="P537" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q537" s="5"/>
       <c r="R537" s="5"/>
@@ -22387,29 +21757,21 @@
       <c r="A538" s="17">
         <v>537</v>
       </c>
-      <c r="B538" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C538" s="21"/>
-      <c r="D538" s="13"/>
-      <c r="E538" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B538" s="7"/>
+      <c r="C538" s="4"/>
+      <c r="D538" s="5"/>
+      <c r="E538" s="5"/>
       <c r="F538" s="5"/>
       <c r="G538" s="5"/>
       <c r="H538" s="5"/>
       <c r="I538" s="5"/>
       <c r="J538" s="5"/>
       <c r="K538" s="5"/>
-      <c r="L538" s="5"/>
-      <c r="M538" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N538" s="13"/>
-      <c r="O538" s="22"/>
-      <c r="P538" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="L538" s="8"/>
+      <c r="M538" s="5"/>
+      <c r="N538" s="5"/>
+      <c r="O538" s="6"/>
+      <c r="P538" s="7"/>
       <c r="Q538" s="5"/>
       <c r="R538" s="5"/>
       <c r="S538" s="5"/>
@@ -22433,29 +21795,21 @@
       <c r="A539" s="17">
         <v>538</v>
       </c>
-      <c r="B539" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C539" s="21"/>
-      <c r="D539" s="13"/>
-      <c r="E539" s="13"/>
-      <c r="F539" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G539" s="5"/>
+      <c r="B539" s="7"/>
+      <c r="C539" s="4"/>
+      <c r="D539" s="5"/>
+      <c r="E539" s="5"/>
+      <c r="F539" s="5"/>
+      <c r="G539" s="8"/>
       <c r="H539" s="5"/>
       <c r="I539" s="5"/>
       <c r="J539" s="5"/>
       <c r="K539" s="5"/>
-      <c r="L539" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M539" s="13"/>
-      <c r="N539" s="13"/>
-      <c r="O539" s="22"/>
-      <c r="P539" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="L539" s="8"/>
+      <c r="M539" s="8"/>
+      <c r="N539" s="5"/>
+      <c r="O539" s="6"/>
+      <c r="P539" s="7"/>
       <c r="Q539" s="5"/>
       <c r="R539" s="5"/>
       <c r="S539" s="5"/>
@@ -22479,31 +21833,23 @@
       <c r="A540" s="17">
         <v>539</v>
       </c>
-      <c r="B540" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C540" s="21"/>
-      <c r="D540" s="13"/>
-      <c r="E540" s="13"/>
-      <c r="F540" s="13"/>
-      <c r="G540" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H540" s="5"/>
+      <c r="B540" s="7"/>
+      <c r="C540" s="4"/>
+      <c r="D540" s="5"/>
+      <c r="E540" s="5"/>
+      <c r="F540" s="5"/>
+      <c r="G540" s="8"/>
+      <c r="H540" s="8"/>
       <c r="I540" s="5" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J540" s="5"/>
-      <c r="K540" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L540" s="13"/>
-      <c r="M540" s="13"/>
-      <c r="N540" s="13"/>
-      <c r="O540" s="22"/>
-      <c r="P540" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="K540" s="8"/>
+      <c r="L540" s="8"/>
+      <c r="M540" s="5"/>
+      <c r="N540" s="5"/>
+      <c r="O540" s="6"/>
+      <c r="P540" s="7"/>
       <c r="Q540" s="5"/>
       <c r="R540" s="5"/>
       <c r="S540" s="5"/>
@@ -22528,27 +21874,23 @@
         <v>540</v>
       </c>
       <c r="B541" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C541" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C541" s="20"/>
       <c r="D541" s="13"/>
-      <c r="E541" s="13"/>
-      <c r="F541" s="13"/>
-      <c r="G541" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H541" s="5"/>
+      <c r="E541" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F541" s="5"/>
       <c r="I541" s="5"/>
       <c r="J541" s="5"/>
-      <c r="K541" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L541" s="13"/>
-      <c r="M541" s="13"/>
+      <c r="M541" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="N541" s="13"/>
-      <c r="O541" s="22"/>
+      <c r="O541" s="21"/>
       <c r="P541" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q541" s="5"/>
       <c r="R541" s="5"/>
@@ -22573,29 +21915,21 @@
       <c r="A542" s="17">
         <v>541</v>
       </c>
-      <c r="B542" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C542" s="21"/>
-      <c r="D542" s="13"/>
-      <c r="E542" s="13"/>
-      <c r="F542" s="13"/>
-      <c r="G542" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H542" s="5"/>
+      <c r="B542" s="7"/>
+      <c r="C542" s="4"/>
+      <c r="D542" s="5"/>
+      <c r="E542" s="5"/>
+      <c r="F542" s="5"/>
+      <c r="G542" s="8"/>
+      <c r="H542" s="8"/>
       <c r="I542" s="5"/>
       <c r="J542" s="5"/>
-      <c r="K542" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L542" s="13"/>
-      <c r="M542" s="13"/>
-      <c r="N542" s="13"/>
-      <c r="O542" s="22"/>
-      <c r="P542" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="K542" s="8"/>
+      <c r="L542" s="8"/>
+      <c r="M542" s="5"/>
+      <c r="N542" s="5"/>
+      <c r="O542" s="6"/>
+      <c r="P542" s="7"/>
       <c r="Q542" s="5"/>
       <c r="R542" s="5"/>
       <c r="S542" s="5"/>
@@ -22619,29 +21953,21 @@
       <c r="A543" s="17">
         <v>542</v>
       </c>
-      <c r="B543" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C543" s="21"/>
-      <c r="D543" s="13"/>
-      <c r="E543" s="13"/>
-      <c r="F543" s="13"/>
-      <c r="G543" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H543" s="5"/>
+      <c r="B543" s="7"/>
+      <c r="C543" s="4"/>
+      <c r="D543" s="5"/>
+      <c r="E543" s="5"/>
+      <c r="F543" s="5"/>
+      <c r="G543" s="8"/>
+      <c r="H543" s="8"/>
       <c r="I543" s="5"/>
       <c r="J543" s="5"/>
-      <c r="K543" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L543" s="13"/>
-      <c r="M543" s="13"/>
-      <c r="N543" s="13"/>
-      <c r="O543" s="22"/>
-      <c r="P543" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="K543" s="8"/>
+      <c r="L543" s="8"/>
+      <c r="M543" s="5"/>
+      <c r="N543" s="5"/>
+      <c r="O543" s="6"/>
+      <c r="P543" s="7"/>
       <c r="Q543" s="5"/>
       <c r="R543" s="5"/>
       <c r="S543" s="5"/>
@@ -22665,29 +21991,21 @@
       <c r="A544" s="17">
         <v>543</v>
       </c>
-      <c r="B544" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C544" s="21"/>
-      <c r="D544" s="13"/>
-      <c r="E544" s="13"/>
-      <c r="F544" s="13"/>
-      <c r="G544" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H544" s="5"/>
+      <c r="B544" s="7"/>
+      <c r="C544" s="4"/>
+      <c r="D544" s="5"/>
+      <c r="E544" s="5"/>
+      <c r="F544" s="5"/>
+      <c r="G544" s="8"/>
+      <c r="H544" s="8"/>
       <c r="I544" s="5"/>
       <c r="J544" s="5"/>
-      <c r="K544" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L544" s="13"/>
-      <c r="M544" s="13"/>
-      <c r="N544" s="13"/>
-      <c r="O544" s="22"/>
-      <c r="P544" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="K544" s="8"/>
+      <c r="L544" s="8"/>
+      <c r="M544" s="5"/>
+      <c r="N544" s="5"/>
+      <c r="O544" s="6"/>
+      <c r="P544" s="7"/>
       <c r="Q544" s="5"/>
       <c r="R544" s="5"/>
       <c r="S544" s="5"/>
@@ -22712,28 +22030,22 @@
         <v>544</v>
       </c>
       <c r="B545" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C545" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C545" s="20"/>
       <c r="D545" s="13"/>
-      <c r="E545" s="13"/>
-      <c r="F545" s="13"/>
-      <c r="G545" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H545" s="5"/>
+      <c r="E545" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F545" s="5"/>
       <c r="J545" s="5"/>
-      <c r="K545" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L545" s="13"/>
-      <c r="M545" s="13"/>
+      <c r="M545" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="N545" s="13"/>
-      <c r="O545" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="O545" s="13"/>
       <c r="P545" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q545" s="5"/>
       <c r="R545" s="5"/>
@@ -22758,29 +22070,21 @@
       <c r="A546" s="17">
         <v>545</v>
       </c>
-      <c r="B546" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C546" s="21"/>
-      <c r="D546" s="13"/>
-      <c r="E546" s="13"/>
-      <c r="F546" s="13"/>
-      <c r="G546" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H546" s="5"/>
+      <c r="B546" s="7"/>
+      <c r="C546" s="4"/>
+      <c r="D546" s="5"/>
+      <c r="E546" s="5"/>
+      <c r="F546" s="5"/>
+      <c r="G546" s="8"/>
+      <c r="H546" s="8"/>
       <c r="I546" s="5"/>
       <c r="J546" s="5"/>
-      <c r="K546" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L546" s="13"/>
-      <c r="M546" s="13"/>
-      <c r="N546" s="13"/>
-      <c r="O546" s="22"/>
-      <c r="P546" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="K546" s="8"/>
+      <c r="L546" s="8"/>
+      <c r="M546" s="5"/>
+      <c r="N546" s="5"/>
+      <c r="O546" s="6"/>
+      <c r="P546" s="7"/>
       <c r="Q546" s="5"/>
       <c r="R546" s="5"/>
       <c r="S546" s="5"/>
@@ -22804,29 +22108,21 @@
       <c r="A547" s="17">
         <v>546</v>
       </c>
-      <c r="B547" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C547" s="21"/>
-      <c r="D547" s="13"/>
-      <c r="E547" s="13"/>
-      <c r="F547" s="13"/>
-      <c r="G547" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H547" s="5"/>
+      <c r="B547" s="7"/>
+      <c r="C547" s="4"/>
+      <c r="D547" s="5"/>
+      <c r="E547" s="5"/>
+      <c r="F547" s="5"/>
+      <c r="G547" s="8"/>
+      <c r="H547" s="8"/>
       <c r="I547" s="5"/>
       <c r="J547" s="5"/>
-      <c r="K547" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L547" s="13"/>
-      <c r="M547" s="13"/>
-      <c r="N547" s="13"/>
-      <c r="O547" s="22"/>
-      <c r="P547" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="K547" s="8"/>
+      <c r="L547" s="8"/>
+      <c r="M547" s="5"/>
+      <c r="N547" s="5"/>
+      <c r="O547" s="6"/>
+      <c r="P547" s="7"/>
       <c r="Q547" s="5"/>
       <c r="R547" s="5"/>
       <c r="S547" s="5"/>
@@ -22850,29 +22146,21 @@
       <c r="A548" s="17">
         <v>547</v>
       </c>
-      <c r="B548" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C548" s="21"/>
-      <c r="D548" s="13"/>
-      <c r="E548" s="13"/>
-      <c r="F548" s="13"/>
-      <c r="G548" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H548" s="5"/>
+      <c r="B548" s="7"/>
+      <c r="C548" s="4"/>
+      <c r="D548" s="5"/>
+      <c r="E548" s="5"/>
+      <c r="F548" s="5"/>
+      <c r="G548" s="8"/>
+      <c r="H548" s="8"/>
       <c r="I548" s="5"/>
       <c r="J548" s="5"/>
-      <c r="K548" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L548" s="13"/>
-      <c r="M548" s="13"/>
-      <c r="N548" s="13"/>
-      <c r="O548" s="22"/>
-      <c r="P548" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="K548" s="8"/>
+      <c r="L548" s="8"/>
+      <c r="M548" s="5"/>
+      <c r="N548" s="5"/>
+      <c r="O548" s="6"/>
+      <c r="P548" s="7"/>
       <c r="Q548" s="5"/>
       <c r="R548" s="5"/>
       <c r="S548" s="5"/>
@@ -22897,27 +22185,23 @@
         <v>548</v>
       </c>
       <c r="B549" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C549" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C549" s="20"/>
       <c r="D549" s="13"/>
-      <c r="E549" s="13"/>
-      <c r="F549" s="13"/>
-      <c r="G549" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H549" s="5"/>
+      <c r="E549" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F549" s="5"/>
       <c r="I549" s="5"/>
       <c r="J549" s="5"/>
-      <c r="K549" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L549" s="13"/>
-      <c r="M549" s="13"/>
+      <c r="M549" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="N549" s="13"/>
-      <c r="O549" s="22"/>
+      <c r="O549" s="21"/>
       <c r="P549" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q549" s="5"/>
       <c r="R549" s="5"/>
@@ -22942,29 +22226,21 @@
       <c r="A550" s="17">
         <v>549</v>
       </c>
-      <c r="B550" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C550" s="13"/>
-      <c r="D550" s="13"/>
-      <c r="E550" s="13"/>
-      <c r="F550" s="13"/>
-      <c r="G550" s="13"/>
-      <c r="H550" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B550" s="7"/>
+      <c r="C550" s="5"/>
+      <c r="D550" s="5"/>
+      <c r="E550" s="5"/>
+      <c r="F550" s="5"/>
+      <c r="G550" s="8"/>
+      <c r="H550" s="8"/>
       <c r="I550" s="5"/>
       <c r="J550" s="5"/>
       <c r="K550" s="5"/>
-      <c r="L550" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M550" s="13"/>
-      <c r="N550" s="13"/>
-      <c r="O550" s="22"/>
-      <c r="P550" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="L550" s="8"/>
+      <c r="M550" s="8"/>
+      <c r="N550" s="5"/>
+      <c r="O550" s="6"/>
+      <c r="P550" s="7"/>
       <c r="Q550" s="5"/>
       <c r="R550" s="5"/>
       <c r="S550" s="5"/>
@@ -22988,31 +22264,21 @@
       <c r="A551" s="17">
         <v>550</v>
       </c>
-      <c r="B551" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C551" s="21"/>
-      <c r="D551" s="13"/>
-      <c r="E551" s="13"/>
-      <c r="F551" s="13"/>
-      <c r="G551" s="13"/>
-      <c r="H551" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B551" s="7"/>
+      <c r="C551" s="4"/>
+      <c r="D551" s="5"/>
+      <c r="E551" s="5"/>
+      <c r="F551" s="5"/>
+      <c r="G551" s="8"/>
+      <c r="H551" s="8"/>
       <c r="I551" s="5"/>
-      <c r="J551" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="J551" s="5"/>
       <c r="K551" s="5"/>
-      <c r="L551" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M551" s="13"/>
-      <c r="N551" s="13"/>
-      <c r="O551" s="22"/>
-      <c r="P551" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="L551" s="8"/>
+      <c r="M551" s="8"/>
+      <c r="N551" s="5"/>
+      <c r="O551" s="6"/>
+      <c r="P551" s="7"/>
       <c r="Q551" s="5"/>
       <c r="R551" s="5"/>
       <c r="S551" s="5"/>
@@ -23036,29 +22302,21 @@
       <c r="A552" s="17">
         <v>551</v>
       </c>
-      <c r="B552" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C552" s="21"/>
-      <c r="D552" s="13"/>
-      <c r="E552" s="13"/>
-      <c r="F552" s="13"/>
-      <c r="G552" s="13"/>
-      <c r="H552" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B552" s="7"/>
+      <c r="C552" s="4"/>
+      <c r="D552" s="5"/>
+      <c r="E552" s="5"/>
+      <c r="F552" s="5"/>
+      <c r="G552" s="8"/>
+      <c r="H552" s="8"/>
       <c r="I552" s="5"/>
       <c r="J552" s="5"/>
       <c r="K552" s="5"/>
-      <c r="L552" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M552" s="13"/>
-      <c r="N552" s="13"/>
-      <c r="O552" s="22"/>
-      <c r="P552" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="L552" s="8"/>
+      <c r="M552" s="8"/>
+      <c r="N552" s="5"/>
+      <c r="O552" s="6"/>
+      <c r="P552" s="7"/>
       <c r="Q552" s="5"/>
       <c r="R552" s="5"/>
       <c r="S552" s="5"/>
@@ -23083,27 +22341,23 @@
         <v>552</v>
       </c>
       <c r="B553" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C553" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C553" s="20"/>
       <c r="D553" s="13"/>
       <c r="E553" s="13"/>
-      <c r="F553" s="13"/>
-      <c r="G553" s="13"/>
-      <c r="H553" s="5" t="s">
-        <v>44</v>
+      <c r="F553" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I553" s="5"/>
       <c r="J553" s="5"/>
       <c r="K553" s="5"/>
-      <c r="L553" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M553" s="13"/>
-      <c r="N553" s="13"/>
-      <c r="O553" s="22"/>
+      <c r="N553" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O553" s="21"/>
       <c r="P553" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q553" s="5"/>
       <c r="R553" s="5"/>
@@ -23128,29 +22382,21 @@
       <c r="A554" s="17">
         <v>553</v>
       </c>
-      <c r="B554" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C554" s="21"/>
-      <c r="D554" s="13"/>
-      <c r="E554" s="13"/>
-      <c r="F554" s="13"/>
-      <c r="G554" s="13"/>
-      <c r="H554" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B554" s="7"/>
+      <c r="C554" s="4"/>
+      <c r="D554" s="5"/>
+      <c r="E554" s="5"/>
+      <c r="F554" s="5"/>
+      <c r="G554" s="8"/>
+      <c r="H554" s="8"/>
       <c r="I554" s="5"/>
       <c r="J554" s="5"/>
       <c r="K554" s="5"/>
-      <c r="L554" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M554" s="13"/>
-      <c r="N554" s="13"/>
-      <c r="O554" s="22"/>
-      <c r="P554" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="L554" s="8"/>
+      <c r="M554" s="8"/>
+      <c r="N554" s="5"/>
+      <c r="O554" s="6"/>
+      <c r="P554" s="7"/>
       <c r="Q554" s="5"/>
       <c r="R554" s="5"/>
       <c r="S554" s="5"/>
@@ -23174,29 +22420,21 @@
       <c r="A555" s="17">
         <v>554</v>
       </c>
-      <c r="B555" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C555" s="21"/>
-      <c r="D555" s="13"/>
-      <c r="E555" s="13"/>
-      <c r="F555" s="13"/>
-      <c r="G555" s="13"/>
-      <c r="H555" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B555" s="7"/>
+      <c r="C555" s="4"/>
+      <c r="D555" s="5"/>
+      <c r="E555" s="5"/>
+      <c r="F555" s="5"/>
+      <c r="G555" s="8"/>
+      <c r="H555" s="8"/>
       <c r="I555" s="5"/>
       <c r="J555" s="5"/>
       <c r="K555" s="5"/>
-      <c r="L555" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M555" s="13"/>
-      <c r="N555" s="13"/>
-      <c r="O555" s="22"/>
-      <c r="P555" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="L555" s="8"/>
+      <c r="M555" s="8"/>
+      <c r="N555" s="5"/>
+      <c r="O555" s="6"/>
+      <c r="P555" s="7"/>
       <c r="Q555" s="5"/>
       <c r="R555" s="5"/>
       <c r="S555" s="5"/>
@@ -23220,29 +22458,21 @@
       <c r="A556" s="17">
         <v>555</v>
       </c>
-      <c r="B556" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C556" s="21"/>
-      <c r="D556" s="13"/>
-      <c r="E556" s="13"/>
-      <c r="F556" s="13"/>
-      <c r="G556" s="13"/>
-      <c r="H556" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B556" s="7"/>
+      <c r="C556" s="4"/>
+      <c r="D556" s="5"/>
+      <c r="E556" s="5"/>
+      <c r="F556" s="5"/>
+      <c r="G556" s="8"/>
+      <c r="H556" s="8"/>
       <c r="I556" s="5"/>
       <c r="J556" s="5"/>
       <c r="K556" s="5"/>
-      <c r="L556" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M556" s="13"/>
-      <c r="N556" s="13"/>
-      <c r="O556" s="22"/>
-      <c r="P556" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="L556" s="8"/>
+      <c r="M556" s="8"/>
+      <c r="N556" s="5"/>
+      <c r="O556" s="6"/>
+      <c r="P556" s="7"/>
       <c r="Q556" s="5"/>
       <c r="R556" s="5"/>
       <c r="S556" s="5"/>
@@ -23267,27 +22497,23 @@
         <v>556</v>
       </c>
       <c r="B557" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C557" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C557" s="20"/>
       <c r="D557" s="13"/>
       <c r="E557" s="13"/>
-      <c r="F557" s="13"/>
-      <c r="G557" s="13"/>
-      <c r="H557" s="5" t="s">
-        <v>44</v>
+      <c r="F557" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I557" s="5"/>
       <c r="J557" s="5"/>
       <c r="K557" s="5"/>
-      <c r="L557" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M557" s="13"/>
-      <c r="N557" s="13"/>
-      <c r="O557" s="22"/>
+      <c r="N557" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O557" s="21"/>
       <c r="P557" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q557" s="5"/>
       <c r="R557" s="5"/>
@@ -23312,33 +22538,14 @@
       <c r="A558" s="17">
         <v>557</v>
       </c>
-      <c r="B558" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C558" s="21"/>
-      <c r="D558" s="13"/>
-      <c r="E558" s="13"/>
-      <c r="F558" s="13"/>
-      <c r="G558" s="13"/>
-      <c r="H558" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I558" t="s">
-        <v>59</v>
-      </c>
-      <c r="J558" s="37"/>
-      <c r="K558" t="s">
-        <v>58</v>
-      </c>
-      <c r="L558" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M558" s="13"/>
-      <c r="N558" s="13"/>
-      <c r="O558" s="22"/>
-      <c r="P558" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B558" s="7"/>
+      <c r="C558" s="4"/>
+      <c r="D558" s="5"/>
+      <c r="E558" s="5"/>
+      <c r="F558" s="5"/>
+      <c r="N558" s="5"/>
+      <c r="O558" s="6"/>
+      <c r="P558" s="7"/>
       <c r="Q558" s="5"/>
       <c r="R558" s="5"/>
       <c r="S558" s="5"/>
@@ -23362,27 +22569,28 @@
       <c r="A559" s="17">
         <v>558</v>
       </c>
-      <c r="B559" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C559" s="21"/>
-      <c r="D559" s="13"/>
-      <c r="E559" s="13"/>
-      <c r="F559" s="13"/>
-      <c r="G559" s="13"/>
-      <c r="H559" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J559" s="5"/>
-      <c r="L559" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M559" s="13"/>
-      <c r="N559" s="13"/>
-      <c r="O559" s="22"/>
-      <c r="P559" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B559" s="7"/>
+      <c r="C559" s="4"/>
+      <c r="D559" s="5"/>
+      <c r="E559" s="5"/>
+      <c r="F559" s="5"/>
+      <c r="G559" t="s">
+        <v>39</v>
+      </c>
+      <c r="H559" s="27"/>
+      <c r="I559" t="s">
+        <v>38</v>
+      </c>
+      <c r="K559" t="s">
+        <v>34</v>
+      </c>
+      <c r="L559" s="27"/>
+      <c r="M559" t="s">
+        <v>35</v>
+      </c>
+      <c r="N559" s="5"/>
+      <c r="O559" s="6"/>
+      <c r="P559" s="7"/>
       <c r="Q559" s="5"/>
       <c r="R559" s="5"/>
       <c r="S559" s="5"/>
@@ -23403,28 +22611,11 @@
       <c r="AH559" s="5"/>
     </row>
     <row r="560" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A560" s="17">
+      <c r="A560" s="30">
         <v>559</v>
       </c>
-      <c r="B560" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C560" s="21"/>
-      <c r="D560" s="13"/>
-      <c r="E560" s="13"/>
-      <c r="F560" s="13"/>
-      <c r="G560" s="13"/>
-      <c r="H560" s="13"/>
-      <c r="I560" s="13"/>
-      <c r="J560" s="13"/>
-      <c r="K560" s="13"/>
-      <c r="L560" s="13"/>
-      <c r="M560" s="13"/>
-      <c r="N560" s="13"/>
-      <c r="O560" s="22"/>
-      <c r="P560" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B560" s="14"/>
+      <c r="P560" s="14"/>
       <c r="Q560" s="5"/>
       <c r="R560" s="5"/>
       <c r="S560" s="5"/>
@@ -23449,26 +22640,23 @@
         <v>560</v>
       </c>
       <c r="B561" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C561" s="21"/>
-      <c r="D561" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E561" s="5"/>
-      <c r="F561" s="5"/>
-      <c r="G561" s="5"/>
-      <c r="I561" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C561" s="20"/>
+      <c r="D561" s="13"/>
+      <c r="E561" s="13"/>
+      <c r="F561" s="13"/>
+      <c r="G561" s="13"/>
+      <c r="H561" s="13"/>
+      <c r="I561" s="13"/>
       <c r="J561" s="13"/>
       <c r="K561" s="13"/>
       <c r="L561" s="13"/>
-      <c r="M561" s="18"/>
+      <c r="M561" s="13"/>
       <c r="N561" s="13"/>
-      <c r="O561" s="22"/>
+      <c r="O561" s="21"/>
       <c r="P561" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q561" s="5"/>
       <c r="R561" s="5"/>
@@ -23493,28 +22681,21 @@
       <c r="A562" s="17">
         <v>561</v>
       </c>
-      <c r="B562" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C562" s="21"/>
-      <c r="D562" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B562" s="7"/>
+      <c r="C562" s="4"/>
+      <c r="D562" s="5"/>
       <c r="E562" s="5"/>
       <c r="F562" s="5"/>
       <c r="G562" s="5"/>
-      <c r="I562" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J562" s="13"/>
-      <c r="K562" s="13"/>
-      <c r="L562" s="13"/>
-      <c r="M562" s="18"/>
-      <c r="N562" s="13"/>
-      <c r="O562" s="22"/>
-      <c r="P562" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H562" s="8"/>
+      <c r="I562" s="5"/>
+      <c r="J562" s="5"/>
+      <c r="K562" s="5"/>
+      <c r="L562" s="5"/>
+      <c r="M562" s="8"/>
+      <c r="N562" s="5"/>
+      <c r="O562" s="6"/>
+      <c r="P562" s="7"/>
       <c r="Q562" s="5"/>
       <c r="R562" s="5"/>
       <c r="S562" s="5"/>
@@ -23538,28 +22719,21 @@
       <c r="A563" s="17">
         <v>562</v>
       </c>
-      <c r="B563" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C563" s="21"/>
-      <c r="D563" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B563" s="7"/>
+      <c r="C563" s="4"/>
+      <c r="D563" s="5"/>
       <c r="E563" s="5"/>
       <c r="F563" s="5"/>
       <c r="G563" s="5"/>
-      <c r="I563" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J563" s="13"/>
-      <c r="K563" s="13"/>
-      <c r="L563" s="13"/>
-      <c r="M563" s="18"/>
-      <c r="N563" s="13"/>
-      <c r="O563" s="22"/>
-      <c r="P563" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H563" s="8"/>
+      <c r="I563" s="5"/>
+      <c r="J563" s="5"/>
+      <c r="K563" s="5"/>
+      <c r="L563" s="5"/>
+      <c r="M563" s="8"/>
+      <c r="N563" s="5"/>
+      <c r="O563" s="6"/>
+      <c r="P563" s="7"/>
       <c r="Q563" s="5"/>
       <c r="R563" s="5"/>
       <c r="S563" s="5"/>
@@ -23583,27 +22757,21 @@
       <c r="A564" s="17">
         <v>563</v>
       </c>
-      <c r="B564" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C564" s="21"/>
-      <c r="D564" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B564" s="7"/>
+      <c r="C564" s="4"/>
+      <c r="D564" s="5"/>
       <c r="E564" s="5"/>
+      <c r="F564" s="8"/>
       <c r="G564" s="5"/>
-      <c r="I564" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J564" s="13"/>
-      <c r="K564" s="13"/>
-      <c r="L564" s="13"/>
-      <c r="M564" s="18"/>
-      <c r="N564" s="13"/>
-      <c r="O564" s="22"/>
-      <c r="P564" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H564" s="8"/>
+      <c r="I564" s="5"/>
+      <c r="J564" s="5"/>
+      <c r="K564" s="5"/>
+      <c r="L564" s="5"/>
+      <c r="M564" s="8"/>
+      <c r="N564" s="5"/>
+      <c r="O564" s="6"/>
+      <c r="P564" s="7"/>
       <c r="Q564" s="5"/>
       <c r="R564" s="5"/>
       <c r="S564" s="5"/>
@@ -23628,26 +22796,23 @@
         <v>564</v>
       </c>
       <c r="B565" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C565" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C565" s="20"/>
       <c r="D565" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E565" s="5"/>
       <c r="F565" s="5"/>
       <c r="G565" s="5"/>
-      <c r="I565" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J565" s="13"/>
-      <c r="K565" s="13"/>
-      <c r="L565" s="13"/>
+      <c r="L565" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="M565" s="13"/>
       <c r="N565" s="13"/>
-      <c r="O565" s="22"/>
+      <c r="O565" s="21"/>
       <c r="P565" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q565" s="5"/>
       <c r="R565" s="5"/>
@@ -23672,28 +22837,17 @@
       <c r="A566" s="17">
         <v>565</v>
       </c>
-      <c r="B566" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C566" s="21"/>
-      <c r="D566" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B566" s="7"/>
+      <c r="C566" s="4"/>
+      <c r="D566" s="5"/>
       <c r="E566" s="5"/>
       <c r="F566" s="5"/>
-      <c r="G566" s="5"/>
-      <c r="I566" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J566" s="13"/>
-      <c r="K566" s="13"/>
-      <c r="L566" s="13"/>
-      <c r="M566" s="18"/>
-      <c r="N566" s="13"/>
-      <c r="O566" s="22"/>
-      <c r="P566" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H566" s="8"/>
+      <c r="L566" s="5"/>
+      <c r="M566" s="5"/>
+      <c r="N566" s="5"/>
+      <c r="O566" s="6"/>
+      <c r="P566" s="7"/>
       <c r="Q566" s="5"/>
       <c r="R566" s="5"/>
       <c r="S566" s="5"/>
@@ -23717,30 +22871,18 @@
       <c r="A567" s="17">
         <v>566</v>
       </c>
-      <c r="B567" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C567" s="21"/>
-      <c r="D567" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B567" s="7"/>
+      <c r="C567" s="4"/>
+      <c r="D567" s="5"/>
       <c r="E567" s="5"/>
       <c r="F567" s="5"/>
-      <c r="G567" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I567" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J567" s="13"/>
-      <c r="K567" s="13"/>
-      <c r="L567" s="13"/>
-      <c r="M567" s="18"/>
-      <c r="N567" s="13"/>
-      <c r="O567" s="22"/>
-      <c r="P567" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="G567" s="5"/>
+      <c r="H567" s="8"/>
+      <c r="L567" s="5"/>
+      <c r="M567" s="5"/>
+      <c r="N567" s="5"/>
+      <c r="O567" s="6"/>
+      <c r="P567" s="7"/>
       <c r="Q567" s="5"/>
       <c r="R567" s="5"/>
       <c r="S567" s="5"/>
@@ -23764,28 +22906,18 @@
       <c r="A568" s="17">
         <v>567</v>
       </c>
-      <c r="B568" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C568" s="21"/>
-      <c r="D568" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B568" s="7"/>
+      <c r="C568" s="4"/>
+      <c r="D568" s="5"/>
       <c r="E568" s="5"/>
       <c r="F568" s="5"/>
       <c r="G568" s="5"/>
-      <c r="I568" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J568" s="13"/>
-      <c r="K568" s="13"/>
-      <c r="L568" s="13"/>
-      <c r="M568" s="18"/>
-      <c r="N568" s="13"/>
-      <c r="O568" s="22"/>
-      <c r="P568" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H568" s="8"/>
+      <c r="L568" s="5"/>
+      <c r="M568" s="5"/>
+      <c r="N568" s="5"/>
+      <c r="O568" s="6"/>
+      <c r="P568" s="7"/>
       <c r="Q568" s="5"/>
       <c r="R568" s="5"/>
       <c r="S568" s="5"/>
@@ -23810,26 +22942,23 @@
         <v>568</v>
       </c>
       <c r="B569" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C569" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C569" s="20"/>
       <c r="D569" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E569" s="5"/>
       <c r="F569" s="5"/>
       <c r="G569" s="5"/>
-      <c r="I569" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J569" s="13"/>
-      <c r="K569" s="13"/>
-      <c r="L569" s="13"/>
+      <c r="L569" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="M569" s="13"/>
       <c r="N569" s="13"/>
-      <c r="O569" s="22"/>
+      <c r="O569" s="21"/>
       <c r="P569" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q569" s="5"/>
       <c r="R569" s="5"/>
@@ -23854,28 +22983,21 @@
       <c r="A570" s="17">
         <v>569</v>
       </c>
-      <c r="B570" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C570" s="21"/>
-      <c r="D570" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B570" s="7"/>
+      <c r="C570" s="4"/>
+      <c r="D570" s="5"/>
       <c r="E570" s="5"/>
       <c r="F570" s="5"/>
       <c r="G570" s="5"/>
+      <c r="H570" s="8"/>
       <c r="I570" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J570" s="13"/>
-      <c r="K570" s="13"/>
-      <c r="L570" s="18"/>
-      <c r="M570" s="18"/>
-      <c r="N570" s="13"/>
-      <c r="O570" s="22"/>
-      <c r="P570" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="L570" s="5"/>
+      <c r="M570" s="5"/>
+      <c r="N570" s="5"/>
+      <c r="O570" s="6"/>
+      <c r="P570" s="7"/>
       <c r="Q570" s="5"/>
       <c r="R570" s="5"/>
       <c r="S570" s="5"/>
@@ -23899,28 +23021,17 @@
       <c r="A571" s="17">
         <v>570</v>
       </c>
-      <c r="B571" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C571" s="21"/>
-      <c r="D571" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B571" s="7"/>
+      <c r="C571" s="4"/>
+      <c r="D571" s="5"/>
       <c r="E571" s="5"/>
-      <c r="F571" s="5"/>
       <c r="G571" s="5"/>
-      <c r="I571" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J571" s="13"/>
-      <c r="K571" s="13"/>
-      <c r="L571" s="13"/>
-      <c r="M571" s="18"/>
-      <c r="N571" s="13"/>
-      <c r="O571" s="22"/>
-      <c r="P571" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H571" s="8"/>
+      <c r="L571" s="5"/>
+      <c r="M571" s="5"/>
+      <c r="N571" s="5"/>
+      <c r="O571" s="6"/>
+      <c r="P571" s="7"/>
       <c r="Q571" s="5"/>
       <c r="R571" s="5"/>
       <c r="S571" s="5"/>
@@ -23944,30 +23055,18 @@
       <c r="A572" s="17">
         <v>571</v>
       </c>
-      <c r="B572" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C572" s="21"/>
-      <c r="D572" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B572" s="7"/>
+      <c r="C572" s="4"/>
+      <c r="D572" s="5"/>
       <c r="E572" s="5"/>
-      <c r="F572" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="F572" s="5"/>
       <c r="G572" s="5"/>
-      <c r="I572" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J572" s="13"/>
-      <c r="K572" s="13"/>
-      <c r="L572" s="18"/>
-      <c r="M572" s="18"/>
-      <c r="N572" s="13"/>
-      <c r="O572" s="22"/>
-      <c r="P572" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H572" s="8"/>
+      <c r="L572" s="5"/>
+      <c r="M572" s="5"/>
+      <c r="N572" s="5"/>
+      <c r="O572" s="6"/>
+      <c r="P572" s="7"/>
       <c r="Q572" s="5"/>
       <c r="R572" s="5"/>
       <c r="S572" s="5"/>
@@ -23992,26 +23091,23 @@
         <v>572</v>
       </c>
       <c r="B573" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C573" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C573" s="20"/>
       <c r="D573" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E573" s="5"/>
       <c r="F573" s="5"/>
       <c r="G573" s="5"/>
-      <c r="I573" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J573" s="13"/>
-      <c r="K573" s="13"/>
-      <c r="L573" s="13"/>
-      <c r="M573" s="18"/>
+      <c r="L573" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M573" s="13"/>
       <c r="N573" s="13"/>
-      <c r="O573" s="22"/>
+      <c r="O573" s="21"/>
       <c r="P573" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q573" s="5"/>
       <c r="R573" s="5"/>
@@ -24036,28 +23132,20 @@
       <c r="A574" s="17">
         <v>573</v>
       </c>
-      <c r="B574" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C574" s="21"/>
-      <c r="D574" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B574" s="7"/>
+      <c r="C574" s="4"/>
+      <c r="D574" s="5"/>
       <c r="E574" s="5"/>
       <c r="F574" s="5"/>
       <c r="G574" s="5"/>
-      <c r="I574" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J574" s="13"/>
-      <c r="K574" s="13"/>
-      <c r="L574" s="13"/>
-      <c r="M574" s="18"/>
-      <c r="N574" s="13"/>
-      <c r="O574" s="22"/>
-      <c r="P574" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H574" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L574" s="5"/>
+      <c r="M574" s="5"/>
+      <c r="N574" s="5"/>
+      <c r="O574" s="6"/>
+      <c r="P574" s="7"/>
       <c r="Q574" s="5"/>
       <c r="R574" s="5"/>
       <c r="S574" s="5"/>
@@ -24081,28 +23169,18 @@
       <c r="A575" s="17">
         <v>574</v>
       </c>
-      <c r="B575" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C575" s="21"/>
-      <c r="D575" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B575" s="7"/>
+      <c r="C575" s="4"/>
+      <c r="D575" s="5"/>
       <c r="E575" s="5"/>
       <c r="F575" s="5"/>
       <c r="G575" s="5"/>
-      <c r="I575" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J575" s="13"/>
-      <c r="K575" s="13"/>
-      <c r="L575" s="13"/>
-      <c r="M575" s="18"/>
-      <c r="N575" s="13"/>
-      <c r="O575" s="22"/>
-      <c r="P575" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H575" s="8"/>
+      <c r="L575" s="5"/>
+      <c r="M575" s="5"/>
+      <c r="N575" s="5"/>
+      <c r="O575" s="6"/>
+      <c r="P575" s="7"/>
       <c r="Q575" s="5"/>
       <c r="R575" s="5"/>
       <c r="S575" s="5"/>
@@ -24126,28 +23204,18 @@
       <c r="A576" s="17">
         <v>575</v>
       </c>
-      <c r="B576" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C576" s="21"/>
-      <c r="D576" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B576" s="7"/>
+      <c r="C576" s="4"/>
+      <c r="D576" s="5"/>
       <c r="E576" s="5"/>
       <c r="F576" s="5"/>
       <c r="G576" s="5"/>
-      <c r="I576" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J576" s="13"/>
-      <c r="K576" s="13"/>
-      <c r="L576" s="13"/>
-      <c r="M576" s="13"/>
-      <c r="N576" s="13"/>
-      <c r="O576" s="22"/>
-      <c r="P576" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H576" s="8"/>
+      <c r="L576" s="5"/>
+      <c r="M576" s="5"/>
+      <c r="N576" s="5"/>
+      <c r="O576" s="6"/>
+      <c r="P576" s="7"/>
       <c r="Q576" s="5"/>
       <c r="R576" s="5"/>
       <c r="S576" s="5"/>
@@ -24172,26 +23240,23 @@
         <v>576</v>
       </c>
       <c r="B577" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C577" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C577" s="20"/>
       <c r="D577" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E577" s="5"/>
       <c r="F577" s="5"/>
       <c r="G577" s="5"/>
-      <c r="I577" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J577" s="13"/>
-      <c r="K577" s="13"/>
-      <c r="L577" s="13"/>
-      <c r="M577" s="18"/>
+      <c r="L577" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M577" s="13"/>
       <c r="N577" s="13"/>
-      <c r="O577" s="22"/>
+      <c r="O577" s="21"/>
       <c r="P577" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q577" s="5"/>
       <c r="R577" s="5"/>
@@ -24216,32 +23281,17 @@
       <c r="A578" s="17">
         <v>577</v>
       </c>
-      <c r="B578" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C578" s="21"/>
-      <c r="D578" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E578" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F578" s="37"/>
-      <c r="G578" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I578" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J578" s="13"/>
-      <c r="K578" s="13"/>
-      <c r="L578" s="13"/>
-      <c r="M578" s="13"/>
-      <c r="N578" s="13"/>
-      <c r="O578" s="22"/>
-      <c r="P578" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B578" s="7"/>
+      <c r="C578" s="4"/>
+      <c r="D578" s="5"/>
+      <c r="I578" s="5"/>
+      <c r="J578" s="5"/>
+      <c r="K578" s="5"/>
+      <c r="L578" s="5"/>
+      <c r="M578" s="5"/>
+      <c r="N578" s="5"/>
+      <c r="O578" s="6"/>
+      <c r="P578" s="7"/>
       <c r="Q578" s="5"/>
       <c r="R578" s="5"/>
       <c r="S578" s="5"/>
@@ -24265,29 +23315,23 @@
       <c r="A579" s="17">
         <v>578</v>
       </c>
-      <c r="B579" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C579" s="21"/>
-      <c r="D579" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E579" s="5"/>
-      <c r="F579" s="5"/>
-      <c r="G579" s="5"/>
-      <c r="H579" s="5"/>
+      <c r="B579" s="7"/>
+      <c r="C579" s="4"/>
+      <c r="D579" s="5"/>
+      <c r="G579" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H579" s="27"/>
       <c r="I579" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J579" s="13"/>
-      <c r="K579" s="18"/>
-      <c r="L579" s="13"/>
-      <c r="M579" s="18"/>
-      <c r="N579" s="13"/>
-      <c r="O579" s="22"/>
-      <c r="P579" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J579" s="5"/>
+      <c r="K579" s="8"/>
+      <c r="L579" s="5"/>
+      <c r="M579" s="8"/>
+      <c r="N579" s="5"/>
+      <c r="O579" s="6"/>
+      <c r="P579" s="7"/>
       <c r="Q579" s="5"/>
       <c r="R579" s="5"/>
       <c r="S579" s="5"/>
@@ -24311,25 +23355,21 @@
       <c r="A580" s="17">
         <v>579</v>
       </c>
-      <c r="B580" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C580" s="21"/>
-      <c r="D580" s="13"/>
-      <c r="E580" s="13"/>
-      <c r="F580" s="13"/>
-      <c r="G580" s="13"/>
-      <c r="H580" s="13"/>
-      <c r="I580" s="13"/>
-      <c r="J580" s="13"/>
-      <c r="K580" s="13"/>
-      <c r="L580" s="13"/>
-      <c r="M580" s="13"/>
-      <c r="N580" s="13"/>
-      <c r="O580" s="22"/>
-      <c r="P580" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B580" s="7"/>
+      <c r="C580" s="4"/>
+      <c r="D580" s="5"/>
+      <c r="E580" s="5"/>
+      <c r="F580" s="5"/>
+      <c r="G580" s="5"/>
+      <c r="H580" s="5"/>
+      <c r="I580" s="5"/>
+      <c r="J580" s="5"/>
+      <c r="K580" s="5"/>
+      <c r="L580" s="5"/>
+      <c r="M580" s="5"/>
+      <c r="N580" s="5"/>
+      <c r="O580" s="6"/>
+      <c r="P580" s="7"/>
       <c r="Q580" s="5"/>
       <c r="R580" s="5"/>
       <c r="S580" s="5"/>
@@ -24353,21 +23393,25 @@
       <c r="A581" s="17">
         <v>580</v>
       </c>
-      <c r="B581" s="14"/>
-      <c r="C581" s="4"/>
-      <c r="D581" s="5"/>
-      <c r="E581" s="5"/>
-      <c r="F581" s="5"/>
-      <c r="G581" s="5"/>
-      <c r="H581" s="5"/>
-      <c r="I581" s="5"/>
-      <c r="J581" s="5"/>
-      <c r="K581" s="5"/>
-      <c r="L581" s="5"/>
-      <c r="M581" s="5"/>
-      <c r="N581" s="5"/>
-      <c r="O581" s="15"/>
-      <c r="P581" s="7"/>
+      <c r="B581" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C581" s="20"/>
+      <c r="D581" s="13"/>
+      <c r="E581" s="13"/>
+      <c r="F581" s="13"/>
+      <c r="G581" s="13"/>
+      <c r="H581" s="13"/>
+      <c r="I581" s="13"/>
+      <c r="J581" s="13"/>
+      <c r="K581" s="13"/>
+      <c r="L581" s="13"/>
+      <c r="M581" s="13"/>
+      <c r="N581" s="13"/>
+      <c r="O581" s="21"/>
+      <c r="P581" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Q581" s="5"/>
       <c r="R581" s="5"/>
       <c r="S581" s="5"/>
@@ -24625,7 +23669,9 @@
       <c r="E588" s="5"/>
       <c r="F588" s="5"/>
       <c r="G588" s="5"/>
-      <c r="H588" s="5"/>
+      <c r="H588" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="I588" s="5"/>
       <c r="J588" s="5"/>
       <c r="K588" s="5"/>
@@ -24733,21 +23779,31 @@
       <c r="A591" s="17">
         <v>590</v>
       </c>
-      <c r="B591" s="14"/>
-      <c r="C591" s="4"/>
-      <c r="D591" s="5"/>
-      <c r="E591" s="5"/>
-      <c r="F591" s="5"/>
-      <c r="G591" s="5"/>
+      <c r="B591" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C591" s="20"/>
+      <c r="D591" s="13"/>
+      <c r="E591" s="13"/>
+      <c r="F591" s="13"/>
+      <c r="G591" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="H591" s="5"/>
-      <c r="I591" s="5"/>
+      <c r="I591" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J591" s="5"/>
-      <c r="K591" s="5"/>
-      <c r="L591" s="5"/>
-      <c r="M591" s="5"/>
-      <c r="N591" s="5"/>
-      <c r="O591" s="15"/>
-      <c r="P591" s="7"/>
+      <c r="K591" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L591" s="13"/>
+      <c r="M591" s="13"/>
+      <c r="N591" s="13"/>
+      <c r="O591" s="21"/>
+      <c r="P591" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q591" s="5"/>
       <c r="R591" s="5"/>
       <c r="S591" s="5"/>
@@ -24855,7 +23911,9 @@
       <c r="G594" s="5"/>
       <c r="H594" s="5"/>
       <c r="I594" s="5"/>
-      <c r="J594" s="5"/>
+      <c r="J594" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="K594" s="5"/>
       <c r="L594" s="5"/>
       <c r="M594" s="5"/>
@@ -25114,23 +24172,23 @@
         <v>600</v>
       </c>
       <c r="B601" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C601" s="34"/>
-      <c r="D601" s="35"/>
-      <c r="E601" s="35"/>
-      <c r="F601" s="35"/>
-      <c r="G601" s="35"/>
-      <c r="H601" s="35"/>
-      <c r="I601" s="35"/>
-      <c r="J601" s="35"/>
-      <c r="K601" s="35"/>
-      <c r="L601" s="35"/>
-      <c r="M601" s="35"/>
-      <c r="N601" s="35"/>
-      <c r="O601" s="36"/>
+        <v>50</v>
+      </c>
+      <c r="C601" s="24"/>
+      <c r="D601" s="25"/>
+      <c r="E601" s="25"/>
+      <c r="F601" s="25"/>
+      <c r="G601" s="25"/>
+      <c r="H601" s="25"/>
+      <c r="I601" s="25"/>
+      <c r="J601" s="25"/>
+      <c r="K601" s="25"/>
+      <c r="L601" s="25"/>
+      <c r="M601" s="25"/>
+      <c r="N601" s="25"/>
+      <c r="O601" s="26"/>
       <c r="P601" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="Q601" s="5"/>
       <c r="R601" s="5"/>
